--- a/computed_files/1_1_argon/mie_results_vle_visc_fluid.xlsx
+++ b/computed_files/1_1_argon/mie_results_vle_visc_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8337918863385133</v>
       </c>
       <c r="D2">
-        <v>155.8414217237654</v>
+        <v>155.8414217237651</v>
       </c>
       <c r="E2">
-        <v>6044244.164125756</v>
+        <v>6044244.164125727</v>
       </c>
       <c r="F2">
-        <v>13719.76675445604</v>
+        <v>13719.76675445599</v>
       </c>
       <c r="G2">
         <v>3.437462565525553</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>49.27515759316197</v>
       </c>
@@ -585,15 +597,21 @@
         <v>0.1333555524805009</v>
       </c>
       <c r="M2">
+        <v>0.1333555524805009</v>
+      </c>
+      <c r="N2">
         <v>1260.222565369829</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>50.35156876201436</v>
+        <v>50.35156876201435</v>
       </c>
       <c r="B3">
-        <v>46.41400228911923</v>
+        <v>46.41400228911919</v>
       </c>
       <c r="C3">
         <v>0.1108736219665249</v>
@@ -608,7 +626,7 @@
         <v>8477.788629206481</v>
       </c>
       <c r="G3">
-        <v>48.00294088258347</v>
+        <v>48.00294088258352</v>
       </c>
       <c r="H3">
         <v>148.7609636527485</v>
@@ -626,18 +644,24 @@
         <v>0.1323900150316875</v>
       </c>
       <c r="M3">
+        <v>0.1323900150316875</v>
+      </c>
+      <c r="N3">
         <v>1195.576048973139</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>51.42797993086674</v>
       </c>
       <c r="B4">
-        <v>72.1320584568807</v>
+        <v>72.13205845688066</v>
       </c>
       <c r="C4">
-        <v>0.1687071032139695</v>
+        <v>0.1687071032139694</v>
       </c>
       <c r="D4">
         <v>42224.20377911528</v>
@@ -667,36 +691,42 @@
         <v>0.1315716304866326</v>
       </c>
       <c r="M4">
+        <v>0.1315716304866326</v>
+      </c>
+      <c r="N4">
         <v>1149.297609552845</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>52.50439109971913</v>
+        <v>52.50439109971912</v>
       </c>
       <c r="B5">
-        <v>109.2891797853169</v>
+        <v>109.2891797853167</v>
       </c>
       <c r="C5">
-        <v>0.2503817712692467</v>
+        <v>0.2503817712692461</v>
       </c>
       <c r="D5">
         <v>41789.34365504082</v>
       </c>
       <c r="E5">
-        <v>8590.626469228055</v>
+        <v>8590.62646922806</v>
       </c>
       <c r="F5">
-        <v>8154.138922938706</v>
+        <v>8154.13892293871</v>
       </c>
       <c r="G5">
-        <v>50.30131893748688</v>
+        <v>50.30131893748689</v>
       </c>
       <c r="H5">
         <v>134.8861490780106</v>
       </c>
       <c r="I5">
-        <v>1.19520886365086E-09</v>
+        <v>1.195208863650861E-09</v>
       </c>
       <c r="J5">
         <v>5.059775759513203E-10</v>
@@ -708,27 +738,33 @@
         <v>0.1308908981630015</v>
       </c>
       <c r="M5">
+        <v>0.1308908981630015</v>
+      </c>
+      <c r="N5">
         <v>1114.851426152652</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>53.58080226857152</v>
+        <v>53.5808022685715</v>
       </c>
       <c r="B6">
-        <v>161.7633726302746</v>
+        <v>161.7633726302732</v>
       </c>
       <c r="C6">
-        <v>0.3631735921308989</v>
+        <v>0.3631735921308957</v>
       </c>
       <c r="D6">
         <v>41377.77958448295</v>
       </c>
       <c r="E6">
-        <v>8449.376971536314</v>
+        <v>8449.376971536318</v>
       </c>
       <c r="F6">
-        <v>8003.964760034572</v>
+        <v>8003.964760034578</v>
       </c>
       <c r="G6">
         <v>49.68291993904622</v>
@@ -737,10 +773,10 @@
         <v>127.4089937442284</v>
       </c>
       <c r="I6">
-        <v>1.217450994469133E-09</v>
+        <v>1.217450994469132E-09</v>
       </c>
       <c r="J6">
-        <v>5.222502883719997E-10</v>
+        <v>5.222502883719996E-10</v>
       </c>
       <c r="K6">
         <v>0.001163242256131684</v>
@@ -749,469 +785,541 @@
         <v>0.130338785954728</v>
       </c>
       <c r="M6">
-        <v>1088.487518630386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.130338785954728</v>
+      </c>
+      <c r="N6">
+        <v>1088.487518630387</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
-        <v>54.65721343742391</v>
+        <v>54.65721343742389</v>
       </c>
       <c r="B7">
-        <v>234.3418480749255</v>
+        <v>234.3418480749294</v>
       </c>
       <c r="C7">
-        <v>0.5157918075645028</v>
+        <v>0.5157918075645115</v>
       </c>
       <c r="D7">
-        <v>40987.54185844111</v>
+        <v>40987.54185844113</v>
       </c>
       <c r="E7">
         <v>8316.212893844573</v>
       </c>
       <c r="F7">
-        <v>7861.88443090698</v>
+        <v>7861.884430906985</v>
       </c>
       <c r="G7">
-        <v>48.28804950956599</v>
+        <v>48.28804950956614</v>
       </c>
       <c r="H7">
-        <v>119.8535453442534</v>
+        <v>119.8535453442538</v>
       </c>
       <c r="I7">
-        <v>1.239645204860386E-09</v>
+        <v>1.239645204860382E-09</v>
       </c>
       <c r="J7">
-        <v>5.393305804075818E-10</v>
+        <v>5.39330580407581E-10</v>
       </c>
       <c r="K7">
-        <v>0.001152730842991999</v>
+        <v>0.001152730842992001</v>
       </c>
       <c r="L7">
-        <v>0.1299062517323154</v>
+        <v>0.1299062517323155</v>
       </c>
       <c r="M7">
-        <v>1067.883419028181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.1299062517323155</v>
+      </c>
+      <c r="N7">
+        <v>1067.883419028182</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>55.73362460627629</v>
+        <v>55.73362460627627</v>
       </c>
       <c r="B8">
-        <v>332.8354354070953</v>
+        <v>332.8354354070858</v>
       </c>
       <c r="C8">
-        <v>0.7184907670463194</v>
+        <v>0.7184907670462991</v>
       </c>
       <c r="D8">
-        <v>40616.84132064142</v>
+        <v>40616.84132064141</v>
       </c>
       <c r="E8">
-        <v>8191.126006178648</v>
+        <v>8191.126006178649</v>
       </c>
       <c r="F8">
         <v>7727.891733692744</v>
       </c>
       <c r="G8">
-        <v>46.3498299642754</v>
+        <v>46.34982996427542</v>
       </c>
       <c r="H8">
         <v>112.3761435742467</v>
       </c>
       <c r="I8">
-        <v>1.261870740004467E-09</v>
+        <v>1.261870740004469E-09</v>
       </c>
       <c r="J8">
-        <v>5.572944517959097E-10</v>
+        <v>5.572944517959103E-10</v>
       </c>
       <c r="K8">
         <v>0.001136894057308417</v>
       </c>
       <c r="L8">
-        <v>0.1295838425110376</v>
+        <v>0.1295838425110375</v>
       </c>
       <c r="M8">
-        <v>1051.512596038696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.1295838425110375</v>
+      </c>
+      <c r="N8">
+        <v>1051.512596038695</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>56.81003577512868</v>
+        <v>56.81003577512865</v>
       </c>
       <c r="B9">
-        <v>464.1919710160774</v>
+        <v>464.1919710160789</v>
       </c>
       <c r="C9">
-        <v>0.9831683516689593</v>
+        <v>0.9831683516689628</v>
       </c>
       <c r="D9">
-        <v>40264.05042135476</v>
+        <v>40264.05042135478</v>
       </c>
       <c r="E9">
-        <v>8073.959766365944</v>
+        <v>8073.959766365943</v>
       </c>
       <c r="F9">
-        <v>7601.832448984212</v>
+        <v>7601.832448984214</v>
       </c>
       <c r="G9">
-        <v>44.05483221422344</v>
+        <v>44.0548322142237</v>
       </c>
       <c r="H9">
-        <v>105.0957506846377</v>
+        <v>105.0957506846381</v>
       </c>
       <c r="I9">
-        <v>1.284206151283101E-09</v>
+        <v>1.284206151283098E-09</v>
       </c>
       <c r="J9">
-        <v>5.762223047558673E-10</v>
+        <v>5.762223047558665E-10</v>
       </c>
       <c r="K9">
-        <v>0.001115709705423664</v>
+        <v>0.001115709705423666</v>
       </c>
       <c r="L9">
         <v>0.129361409700673</v>
       </c>
       <c r="M9">
-        <v>1038.321590591388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.129361409700673</v>
+      </c>
+      <c r="N9">
+        <v>1038.321590591389</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>57.88644694398106</v>
+        <v>57.88644694398103</v>
       </c>
       <c r="B10">
-        <v>636.6073112483783</v>
+        <v>636.6073112483679</v>
       </c>
       <c r="C10">
-        <v>1.32345038059418</v>
+        <v>1.323450380594159</v>
       </c>
       <c r="D10">
         <v>39927.68649452442</v>
       </c>
       <c r="E10">
-        <v>7964.446491555764</v>
+        <v>7964.446491555766</v>
       </c>
       <c r="F10">
         <v>7483.4415218787</v>
       </c>
       <c r="G10">
-        <v>41.54983100607896</v>
+        <v>41.54983100607908</v>
       </c>
       <c r="H10">
-        <v>98.09955467827859</v>
+        <v>98.09955467827884</v>
       </c>
       <c r="I10">
         <v>1.306728990293164E-09</v>
       </c>
       <c r="J10">
-        <v>5.961990544387814E-10</v>
+        <v>5.961990544387803E-10</v>
       </c>
       <c r="K10">
         <v>0.001089268308989422</v>
       </c>
       <c r="L10">
-        <v>0.1292279676635806</v>
+        <v>0.1292279676635805</v>
       </c>
       <c r="M10">
+        <v>0.1292279676635805</v>
+      </c>
+      <c r="N10">
         <v>1027.552578278374</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>58.96285811283344</v>
+        <v>58.96285811283342</v>
       </c>
       <c r="B11">
-        <v>859.6327502855871</v>
+        <v>859.6327502856165</v>
       </c>
       <c r="C11">
-        <v>1.754760824786518</v>
+        <v>1.754760824786578</v>
       </c>
       <c r="D11">
-        <v>39606.39696187624</v>
+        <v>39606.39696187625</v>
       </c>
       <c r="E11">
-        <v>7862.238608393612</v>
+        <v>7862.238608393607</v>
       </c>
       <c r="F11">
-        <v>7372.374319103024</v>
+        <v>7372.374319103019</v>
       </c>
       <c r="G11">
-        <v>38.94816272288988</v>
+        <v>38.94816272289002</v>
       </c>
       <c r="H11">
-        <v>91.44832475959969</v>
+        <v>91.44832475959988</v>
       </c>
       <c r="I11">
         <v>1.329515617255188E-09</v>
       </c>
       <c r="J11">
-        <v>6.173142019435848E-10</v>
+        <v>6.173142019435847E-10</v>
       </c>
       <c r="K11">
-        <v>0.001057797069380829</v>
+        <v>0.00105779706938083</v>
       </c>
       <c r="L11">
-        <v>0.1291717065775793</v>
+        <v>0.1291717065775794</v>
       </c>
       <c r="M11">
-        <v>1018.640199097363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.1291717065775794</v>
+      </c>
+      <c r="N11">
+        <v>1018.640199097362</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>60.03926928168583</v>
+        <v>60.0392692816858</v>
       </c>
       <c r="B12">
-        <v>1144.277744878178</v>
+        <v>1144.277744878162</v>
       </c>
       <c r="C12">
-        <v>2.294377990461438</v>
+        <v>2.294377990461407</v>
       </c>
       <c r="D12">
         <v>39298.94621520564</v>
       </c>
       <c r="E12">
-        <v>7766.934372957107</v>
+        <v>7766.934372957116</v>
       </c>
       <c r="F12">
-        <v>7268.232352772956</v>
+        <v>7268.232352772962</v>
       </c>
       <c r="G12">
-        <v>36.3354968319524</v>
+        <v>36.33549683195243</v>
       </c>
       <c r="H12">
-        <v>85.1813103892283</v>
+        <v>85.18131038922839</v>
       </c>
       <c r="I12">
-        <v>1.352641112202757E-09</v>
+        <v>1.352641112202758E-09</v>
       </c>
       <c r="J12">
-        <v>6.396618605556711E-10</v>
+        <v>6.39661860555671E-10</v>
       </c>
       <c r="K12">
-        <v>0.001021680375141862</v>
+        <v>0.001021680375141861</v>
       </c>
       <c r="L12">
         <v>0.1291801519561784</v>
       </c>
       <c r="M12">
+        <v>0.1291801519561784</v>
+      </c>
+      <c r="N12">
         <v>1011.148882174965</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>61.11568045053822</v>
+        <v>61.11568045053819</v>
       </c>
       <c r="B13">
-        <v>1503.106949451406</v>
+        <v>1503.106949451392</v>
       </c>
       <c r="C13">
-        <v>2.961477075397892</v>
+        <v>2.961477075397866</v>
       </c>
       <c r="D13">
         <v>39004.20396350612</v>
       </c>
       <c r="E13">
-        <v>7678.098617610352</v>
+        <v>7678.098617610362</v>
       </c>
       <c r="F13">
-        <v>7170.584027886297</v>
+        <v>7170.584027886303</v>
       </c>
       <c r="G13">
-        <v>33.77493347253757</v>
+        <v>33.77493347253763</v>
       </c>
       <c r="H13">
-        <v>79.32057926539446</v>
+        <v>79.32057926539457</v>
       </c>
       <c r="I13">
         <v>1.376179277001844E-09</v>
       </c>
       <c r="J13">
-        <v>6.633407253162434E-10</v>
+        <v>6.633407253162433E-10</v>
       </c>
       <c r="K13">
-        <v>0.0009814709741541448</v>
+        <v>0.0009814709741541459</v>
       </c>
       <c r="L13">
         <v>0.129240445526</v>
       </c>
       <c r="M13">
+        <v>0.129240445526</v>
+      </c>
+      <c r="N13">
         <v>1004.733493483756</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>62.1920916193906</v>
+        <v>62.19209161939057</v>
       </c>
       <c r="B14">
-        <v>1950.330660966704</v>
+        <v>1950.330660966699</v>
       </c>
       <c r="C14">
-        <v>3.777159684619303</v>
+        <v>3.777159684619295</v>
       </c>
       <c r="D14">
-        <v>38721.13486238918</v>
+        <v>38721.1348623892</v>
       </c>
       <c r="E14">
-        <v>7595.279153272677</v>
+        <v>7595.279153272678</v>
       </c>
       <c r="F14">
-        <v>7078.981042136856</v>
+        <v>7078.981042136857</v>
       </c>
       <c r="G14">
-        <v>31.31140946161445</v>
+        <v>31.31140946161442</v>
       </c>
       <c r="H14">
-        <v>73.87476160008602</v>
+        <v>73.87476160008612</v>
       </c>
       <c r="I14">
-        <v>1.400202716242957E-09</v>
+        <v>1.400202716242956E-09</v>
       </c>
       <c r="J14">
-        <v>6.884539756316695E-10</v>
+        <v>6.884539756316682E-10</v>
       </c>
       <c r="K14">
-        <v>0.000937885842063327</v>
+        <v>0.0009378858420633291</v>
       </c>
       <c r="L14">
         <v>0.1293397087698834</v>
       </c>
       <c r="M14">
-        <v>999.1140546621119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.1293397087698834</v>
+      </c>
+      <c r="N14">
+        <v>999.1140546621131</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>63.268502788243</v>
+        <v>63.26850278824296</v>
       </c>
       <c r="B15">
-        <v>2501.88786900267</v>
+        <v>2501.887869002647</v>
       </c>
       <c r="C15">
-        <v>4.764471036752838</v>
+        <v>4.764471036752797</v>
       </c>
       <c r="D15">
-        <v>38448.78926887068</v>
+        <v>38448.78926887069</v>
       </c>
       <c r="E15">
-        <v>7518.019463447478</v>
+        <v>7518.019463447483</v>
       </c>
       <c r="F15">
-        <v>6992.971074551922</v>
+        <v>6992.971074551927</v>
       </c>
       <c r="G15">
-        <v>28.97543978386901</v>
+        <v>28.97543978386906</v>
       </c>
       <c r="H15">
-        <v>68.84221482312076</v>
+        <v>68.84221482312098</v>
       </c>
       <c r="I15">
         <v>1.424782985605337E-09</v>
       </c>
       <c r="J15">
-        <v>7.151091005456077E-10</v>
+        <v>7.151091005456062E-10</v>
       </c>
       <c r="K15">
-        <v>0.0008917824424696323</v>
+        <v>0.0008917824424696341</v>
       </c>
       <c r="L15">
         <v>0.1294654432776007</v>
       </c>
       <c r="M15">
-        <v>994.0592853472335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.1294654432776007</v>
+      </c>
+      <c r="N15">
+        <v>994.0592853472343</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>64.34491395709537</v>
+        <v>64.34491395709533</v>
       </c>
       <c r="B16">
-        <v>3175.52120835267</v>
+        <v>3175.521208352643</v>
       </c>
       <c r="C16">
-        <v>5.948405713621511</v>
+        <v>5.948405713621464</v>
       </c>
       <c r="D16">
-        <v>38186.29498612065</v>
+        <v>38186.29498612066</v>
       </c>
       <c r="E16">
         <v>7445.868294434522</v>
       </c>
       <c r="F16">
-        <v>6912.107367595125</v>
+        <v>6912.107367595126</v>
       </c>
       <c r="G16">
         <v>26.78624777096352</v>
       </c>
       <c r="H16">
-        <v>64.21365070923216</v>
+        <v>64.21365070923223</v>
       </c>
       <c r="I16">
         <v>1.449990797214692E-09</v>
       </c>
       <c r="J16">
-        <v>7.434176366065565E-10</v>
+        <v>7.434176366065564E-10</v>
       </c>
       <c r="K16">
-        <v>0.0008441146209120091</v>
+        <v>0.0008441146209120105</v>
       </c>
       <c r="L16">
         <v>0.1296059214649884</v>
       </c>
       <c r="M16">
-        <v>989.3758435725821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.1296059214649884</v>
+      </c>
+      <c r="N16">
+        <v>989.3758435725825</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>65.42132512594777</v>
+        <v>65.42132512594772</v>
       </c>
       <c r="B17">
-        <v>3990.84322186554</v>
+        <v>3990.843221865517</v>
       </c>
       <c r="C17">
-        <v>7.355902911298065</v>
+        <v>7.355902911298027</v>
       </c>
       <c r="D17">
-        <v>37932.84988091987</v>
+        <v>37932.84988091988</v>
       </c>
       <c r="E17">
-        <v>7378.38669180812</v>
+        <v>7378.386691808128</v>
       </c>
       <c r="F17">
-        <v>6835.955753090388</v>
+        <v>6835.955753090397</v>
       </c>
       <c r="G17">
-        <v>24.75435010360668</v>
+        <v>24.75435010360676</v>
       </c>
       <c r="H17">
-        <v>59.97428135002819</v>
+        <v>59.97428135002839</v>
       </c>
       <c r="I17">
         <v>1.475896272672952E-09</v>
       </c>
       <c r="J17">
-        <v>7.734948090636941E-10</v>
+        <v>7.734948090636933E-10</v>
       </c>
       <c r="K17">
-        <v>0.0007958721364066499</v>
+        <v>0.0007958721364066517</v>
       </c>
       <c r="L17">
-        <v>0.1297505262616819</v>
+        <v>0.1297505262616818</v>
       </c>
       <c r="M17">
-        <v>984.9013085680647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.1297505262616818</v>
+      </c>
+      <c r="N17">
+        <v>984.9013085680648</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>66.49773629480015</v>
+        <v>66.49773629480011</v>
       </c>
       <c r="B18">
-        <v>4969.393460685681</v>
+        <v>4969.393460685736</v>
       </c>
       <c r="C18">
-        <v>9.015832243842956</v>
+        <v>9.015832243843063</v>
       </c>
       <c r="D18">
         <v>37687.7152719287</v>
@@ -1220,3431 +1328,3935 @@
         <v>7315.152968548721</v>
       </c>
       <c r="F18">
-        <v>6764.099607672302</v>
+        <v>6764.099607672303</v>
       </c>
       <c r="G18">
-        <v>22.88366681957641</v>
+        <v>22.88366681957651</v>
       </c>
       <c r="H18">
-        <v>56.10554574226045</v>
+        <v>56.10554574226064</v>
       </c>
       <c r="I18">
-        <v>1.502569235725026E-09</v>
+        <v>1.502569235725022E-09</v>
       </c>
       <c r="J18">
-        <v>8.054590685028439E-10</v>
+        <v>8.054590685028421E-10</v>
       </c>
       <c r="K18">
-        <v>0.0007480123606702126</v>
+        <v>0.0007480123606702154</v>
       </c>
       <c r="L18">
         <v>0.1298900073903703</v>
       </c>
       <c r="M18">
-        <v>980.4996193590614</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.1298900073903703</v>
+      </c>
+      <c r="N18">
+        <v>980.4996193590622</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>67.57414746365254</v>
+        <v>67.57414746365249</v>
       </c>
       <c r="B19">
-        <v>6134.686075903047</v>
+        <v>6134.686075902966</v>
       </c>
       <c r="C19">
-        <v>10.95897123086179</v>
+        <v>10.95897123086166</v>
       </c>
       <c r="D19">
-        <v>37450.20999993901</v>
+        <v>37450.20999993902</v>
       </c>
       <c r="E19">
-        <v>7255.766023115818</v>
+        <v>7255.766023115817</v>
       </c>
       <c r="F19">
-        <v>6696.143156401668</v>
+        <v>6696.143156401672</v>
       </c>
       <c r="G19">
-        <v>21.17322494368441</v>
+        <v>21.17322494368444</v>
       </c>
       <c r="H19">
-        <v>52.58647832336327</v>
+        <v>52.58647832336336</v>
       </c>
       <c r="I19">
-        <v>1.530079537860626E-09</v>
+        <v>1.530079537860622E-09</v>
       </c>
       <c r="J19">
-        <v>8.394315170640981E-10</v>
+        <v>8.394315170640961E-10</v>
       </c>
       <c r="K19">
-        <v>0.0007013952516356458</v>
+        <v>0.0007013952516356482</v>
       </c>
       <c r="L19">
         <v>0.130016633163843</v>
       </c>
       <c r="M19">
-        <v>976.0580823055466</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.130016633163843</v>
+      </c>
+      <c r="N19">
+        <v>976.0580823055476</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>68.65055863250493</v>
+        <v>68.65055863250487</v>
       </c>
       <c r="B20">
-        <v>7512.247686952163</v>
+        <v>7512.247686952153</v>
       </c>
       <c r="C20">
-        <v>13.21797566480518</v>
+        <v>13.21797566480517</v>
       </c>
       <c r="D20">
-        <v>37219.70510244048</v>
+        <v>37219.70510244049</v>
       </c>
       <c r="E20">
-        <v>7199.847361166017</v>
+        <v>7199.84736116603</v>
       </c>
       <c r="F20">
-        <v>6631.713478620923</v>
+        <v>6631.713478620934</v>
       </c>
       <c r="G20">
-        <v>19.61851951738191</v>
+        <v>19.61851951738207</v>
       </c>
       <c r="H20">
-        <v>49.39477692258986</v>
+        <v>49.39477692259006</v>
       </c>
       <c r="I20">
         <v>1.558497411470088E-09</v>
       </c>
       <c r="J20">
-        <v>8.755352211103678E-10</v>
+        <v>8.755352211103662E-10</v>
       </c>
       <c r="K20">
-        <v>0.0006567322005866302</v>
+        <v>0.0006567322005866325</v>
       </c>
       <c r="L20">
         <v>0.1301242288460843</v>
       </c>
       <c r="M20">
-        <v>971.485314971928</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.1301242288460843</v>
+      </c>
+      <c r="N20">
+        <v>971.485314971927</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>69.72696980135731</v>
+        <v>69.72696980135726</v>
       </c>
       <c r="B21">
-        <v>9129.645444232614</v>
+        <v>9129.645444232532</v>
       </c>
       <c r="C21">
-        <v>15.8273441012551</v>
+        <v>15.82734410125497</v>
       </c>
       <c r="D21">
-        <v>36995.61902441017</v>
+        <v>36995.61902441018</v>
       </c>
       <c r="E21">
-        <v>7147.042115320684</v>
+        <v>7147.042115320693</v>
       </c>
       <c r="F21">
-        <v>6570.461510832004</v>
+        <v>6570.46151083201</v>
       </c>
       <c r="G21">
-        <v>18.21258931043448</v>
+        <v>18.21258931043452</v>
       </c>
       <c r="H21">
-        <v>46.50762194523924</v>
+        <v>46.50762194523936</v>
       </c>
       <c r="I21">
         <v>1.587893846440141E-09</v>
       </c>
       <c r="J21">
-        <v>9.13894410650434E-10</v>
+        <v>9.138944106504322E-10</v>
       </c>
       <c r="K21">
-        <v>0.0006145558666634237</v>
+        <v>0.0006145558666634256</v>
       </c>
       <c r="L21">
         <v>0.1302081043464813</v>
       </c>
       <c r="M21">
+        <v>0.1302081043464813</v>
+      </c>
+      <c r="N21">
         <v>966.7096702319427</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>70.80338097020969</v>
+        <v>70.80338097020963</v>
       </c>
       <c r="B22">
-        <v>11016.50533247346</v>
+        <v>11016.50533247327</v>
       </c>
       <c r="C22">
-        <v>18.82337774344822</v>
+        <v>18.8233777434479</v>
       </c>
       <c r="D22">
-        <v>36777.41330548862</v>
+        <v>36777.41330548863</v>
       </c>
       <c r="E22">
-        <v>7097.019304693786</v>
+        <v>7097.019304693787</v>
       </c>
       <c r="F22">
         <v>6512.062288680746</v>
       </c>
       <c r="G22">
-        <v>16.94685740624332</v>
+        <v>16.94685740624352</v>
       </c>
       <c r="H22">
-        <v>43.90229224723961</v>
+        <v>43.90229224723983</v>
       </c>
       <c r="I22">
-        <v>1.618340987264869E-09</v>
+        <v>1.618340987264868E-09</v>
       </c>
       <c r="J22">
-        <v>9.54633569921617E-10</v>
+        <v>9.546335699216149E-10</v>
       </c>
       <c r="K22">
-        <v>0.0005752129858462556</v>
+        <v>0.0005752129858462566</v>
       </c>
       <c r="L22">
         <v>0.1302648842871867</v>
       </c>
       <c r="M22">
-        <v>961.67781973776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.1302648842871867</v>
+      </c>
+      <c r="N22">
+        <v>961.6778197377585</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>71.87979213906209</v>
+        <v>71.87979213906202</v>
       </c>
       <c r="B23">
-        <v>13204.52088369402</v>
+        <v>13204.52088369376</v>
       </c>
       <c r="C23">
-        <v>22.24413700018139</v>
+        <v>22.24413700018097</v>
       </c>
       <c r="D23">
-        <v>36564.58869084858</v>
+        <v>36564.5886908486</v>
       </c>
       <c r="E23">
-        <v>7049.471530179691</v>
+        <v>7049.471530179692</v>
       </c>
       <c r="F23">
-        <v>6456.214624405638</v>
+        <v>6456.214624405639</v>
       </c>
       <c r="G23">
-        <v>15.81177982691896</v>
+        <v>15.81177982691892</v>
       </c>
       <c r="H23">
-        <v>41.55661676391023</v>
+        <v>41.55661676391031</v>
       </c>
       <c r="I23">
-        <v>1.649912548845809E-09</v>
+        <v>1.649912548845808E-09</v>
       </c>
       <c r="J23">
-        <v>9.97876428207471E-10</v>
+        <v>9.978764282074681E-10</v>
       </c>
       <c r="K23">
-        <v>0.0005388772412608561</v>
+        <v>0.0005388772412608587</v>
       </c>
       <c r="L23">
         <v>0.130292261400047</v>
       </c>
       <c r="M23">
-        <v>956.3532877126933</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.130292261400047</v>
+      </c>
+      <c r="N23">
+        <v>956.3532877126947</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>72.95620330791446</v>
+        <v>72.95620330791439</v>
       </c>
       <c r="B24">
-        <v>15727.45258105316</v>
+        <v>15727.45258105301</v>
       </c>
       <c r="C24">
-        <v>26.1293959843118</v>
+        <v>26.12939598431156</v>
       </c>
       <c r="D24">
         <v>36356.68161926694</v>
       </c>
       <c r="E24">
-        <v>7004.11426257902</v>
+        <v>7004.114262579023</v>
       </c>
       <c r="F24">
         <v>6402.640377162964</v>
       </c>
       <c r="G24">
-        <v>14.79733878596865</v>
+        <v>14.79733878596869</v>
       </c>
       <c r="H24">
-        <v>39.44929492514103</v>
+        <v>39.44929492514115</v>
       </c>
       <c r="I24">
-        <v>1.682684250161031E-09</v>
+        <v>1.682684250161032E-09</v>
       </c>
       <c r="J24">
-        <v>1.0437448650424E-09</v>
+        <v>1.043744865042398E-09</v>
       </c>
       <c r="K24">
-        <v>0.0005055760850720628</v>
+        <v>0.000505576085072064</v>
       </c>
       <c r="L24">
         <v>0.1302886991412212</v>
       </c>
       <c r="M24">
+        <v>0.1302886991412212</v>
+      </c>
+      <c r="N24">
         <v>950.7148212136858</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>74.03261447676685</v>
+        <v>74.0326144767668</v>
       </c>
       <c r="B25">
-        <v>18621.11833501622</v>
+        <v>18621.118335016</v>
       </c>
       <c r="C25">
-        <v>30.52059618881817</v>
+        <v>30.52059618881784</v>
       </c>
       <c r="D25">
-        <v>36153.26104731802</v>
+        <v>36153.26104731803</v>
       </c>
       <c r="E25">
-        <v>6960.684847991415</v>
+        <v>6960.684847991413</v>
       </c>
       <c r="F25">
-        <v>6351.083440960537</v>
+        <v>6351.083440960533</v>
       </c>
       <c r="G25">
-        <v>13.89341121998256</v>
+        <v>13.89341121998268</v>
       </c>
       <c r="H25">
-        <v>37.5601134255453</v>
+        <v>37.56011342554545</v>
       </c>
       <c r="I25">
-        <v>1.716734265900022E-09</v>
+        <v>1.716734265900021E-09</v>
       </c>
       <c r="J25">
-        <v>1.092357749209844E-09</v>
+        <v>1.092357749209841E-09</v>
       </c>
       <c r="K25">
-        <v>0.0004752244371501281</v>
+        <v>0.0004752244371501294</v>
       </c>
       <c r="L25">
         <v>0.130253111158159</v>
       </c>
       <c r="M25">
-        <v>944.7545621394265</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.130253111158159</v>
+      </c>
+      <c r="N25">
+        <v>944.7545621394257</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>75.10902564561924</v>
+        <v>75.10902564561917</v>
       </c>
       <c r="B26">
-        <v>21923.37549933723</v>
+        <v>21923.3754993371</v>
       </c>
       <c r="C26">
-        <v>35.46080053107161</v>
+        <v>35.46080053107143</v>
       </c>
       <c r="D26">
         <v>35953.92557333317</v>
       </c>
       <c r="E26">
-        <v>6918.941327857587</v>
+        <v>6918.941327857605</v>
       </c>
       <c r="F26">
-        <v>6301.308547850531</v>
+        <v>6301.308547850543</v>
       </c>
       <c r="G26">
-        <v>13.09003802966957</v>
+        <v>13.09003802966961</v>
       </c>
       <c r="H26">
-        <v>35.87008210601356</v>
+        <v>35.87008210601365</v>
       </c>
       <c r="I26">
-        <v>1.752143696998957E-09</v>
+        <v>1.75214369699896E-09</v>
       </c>
       <c r="J26">
-        <v>1.143829736087424E-09</v>
+        <v>1.143829736087423E-09</v>
       </c>
       <c r="K26">
-        <v>0.0004476590693898731</v>
+        <v>0.0004476590693898744</v>
       </c>
       <c r="L26">
         <v>0.1301845440958439</v>
       </c>
       <c r="M26">
-        <v>938.476047415941</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.1301845440958439</v>
+      </c>
+      <c r="N26">
+        <v>938.4760474159403</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>76.18543681447163</v>
+        <v>76.18543681447156</v>
       </c>
       <c r="B27">
-        <v>25674.09496544896</v>
+        <v>25674.09496544882</v>
       </c>
       <c r="C27">
-        <v>40.99464889666955</v>
+        <v>40.99464889666935</v>
       </c>
       <c r="D27">
-        <v>35758.30082891334</v>
+        <v>35758.30082891335</v>
       </c>
       <c r="E27">
-        <v>6878.661148867517</v>
+        <v>6878.661148867522</v>
       </c>
       <c r="F27">
-        <v>6253.099961828822</v>
+        <v>6253.099961828825</v>
       </c>
       <c r="G27">
-        <v>12.37761495474681</v>
+        <v>12.3776149547468</v>
       </c>
       <c r="H27">
-        <v>34.36150755088877</v>
+        <v>34.3615075508888</v>
       </c>
       <c r="I27">
-        <v>1.78899706178154E-09</v>
+        <v>1.788997061781538E-09</v>
       </c>
       <c r="J27">
-        <v>1.198270052599959E-09</v>
+        <v>1.198270052599954E-09</v>
       </c>
       <c r="K27">
-        <v>0.000422669367128863</v>
+        <v>0.0004226693671288647</v>
       </c>
       <c r="L27">
         <v>0.1300818868740409</v>
       </c>
       <c r="M27">
-        <v>931.8921051658741</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.1300818868740409</v>
+      </c>
+      <c r="N27">
+        <v>931.8921051658747</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>77.261847983324</v>
+        <v>77.26184798332393</v>
       </c>
       <c r="B28">
-        <v>29915.12792964859</v>
+        <v>29915.12792964842</v>
       </c>
       <c r="C28">
-        <v>47.16831624522122</v>
+        <v>47.16831624522099</v>
       </c>
       <c r="D28">
         <v>35566.03710941989</v>
       </c>
       <c r="E28">
-        <v>6839.639819963793</v>
+        <v>6839.639819963796</v>
       </c>
       <c r="F28">
-        <v>6206.260120862586</v>
+        <v>6206.260120862587</v>
       </c>
       <c r="G28">
-        <v>11.74702217391961</v>
+        <v>11.74702217391959</v>
       </c>
       <c r="H28">
-        <v>33.01801947760207</v>
+        <v>33.01801947760212</v>
       </c>
       <c r="I28">
-        <v>1.827382810128811E-09</v>
+        <v>1.82738281012881E-09</v>
       </c>
       <c r="J28">
-        <v>1.255781302956816E-09</v>
+        <v>1.255781302956813E-09</v>
       </c>
       <c r="K28">
-        <v>0.0004000222065578506</v>
+        <v>0.0004000222065578518</v>
       </c>
       <c r="L28">
-        <v>0.1299436248719335</v>
+        <v>0.1299436248719336</v>
       </c>
       <c r="M28">
-        <v>925.0227361157048</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.1299436248719336</v>
+      </c>
+      <c r="N28">
+        <v>925.0227361157056</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>78.33825915217641</v>
+        <v>78.33825915217632</v>
       </c>
       <c r="B29">
-        <v>34690.2659683053</v>
+        <v>34690.26596830508</v>
       </c>
       <c r="C29">
-        <v>54.02947426542714</v>
+        <v>54.02947426542686</v>
       </c>
       <c r="D29">
-        <v>35376.80721806853</v>
+        <v>35376.80721806856</v>
       </c>
       <c r="E29">
-        <v>6801.689559204496</v>
+        <v>6801.689559204495</v>
       </c>
       <c r="F29">
-        <v>6160.608269966418</v>
+        <v>6160.60826996642</v>
       </c>
       <c r="G29">
-        <v>11.18970649643449</v>
+        <v>11.18970649643457</v>
       </c>
       <c r="H29">
-        <v>31.82456203545422</v>
+        <v>31.82456203545437</v>
       </c>
       <c r="I29">
-        <v>1.867393863782858E-09</v>
+        <v>1.867393863782855E-09</v>
       </c>
       <c r="J29">
-        <v>1.31645833112764E-09</v>
+        <v>1.316458331127636E-09</v>
       </c>
       <c r="K29">
-        <v>0.0003794803596973542</v>
+        <v>0.000379480359697356</v>
       </c>
       <c r="L29">
         <v>0.1297676522315029</v>
       </c>
       <c r="M29">
-        <v>917.8930730520912</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.1297676522315029</v>
+      </c>
+      <c r="N29">
+        <v>917.8930730520914</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>79.41467032102878</v>
+        <v>79.41467032102871</v>
       </c>
       <c r="B30">
-        <v>40045.19508296712</v>
+        <v>40045.19508296691</v>
       </c>
       <c r="C30">
-        <v>61.62725748913105</v>
+        <v>61.62725748913077</v>
       </c>
       <c r="D30">
-        <v>35190.30450107165</v>
+        <v>35190.30450107167</v>
       </c>
       <c r="E30">
         <v>6764.637961722085</v>
       </c>
       <c r="F30">
-        <v>6115.979116685134</v>
+        <v>6115.979116685133</v>
       </c>
       <c r="G30">
-        <v>10.69772732323472</v>
+        <v>10.69772732323469</v>
       </c>
       <c r="H30">
-        <v>30.76735967072315</v>
+        <v>30.76735967072318</v>
       </c>
       <c r="I30">
-        <v>1.909128186550604E-09</v>
+        <v>1.9091281865506E-09</v>
       </c>
       <c r="J30">
-        <v>1.38038717734454E-09</v>
+        <v>1.380387177344534E-09</v>
       </c>
       <c r="K30">
-        <v>0.0003608149327419837</v>
+        <v>0.0003608149327419854</v>
       </c>
       <c r="L30">
-        <v>0.1295511503265199</v>
+        <v>0.12955115032652</v>
       </c>
       <c r="M30">
-        <v>910.531500693205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.12955115032652</v>
+      </c>
+      <c r="N30">
+        <v>910.5315006932065</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>80.49108148988117</v>
+        <v>80.49108148988108</v>
       </c>
       <c r="B31">
-        <v>46027.44439087618</v>
+        <v>46027.44439087596</v>
       </c>
       <c r="C31">
-        <v>70.0122346970691</v>
+        <v>70.01223469706885</v>
       </c>
       <c r="D31">
-        <v>35006.24105376058</v>
+        <v>35006.2410537606</v>
       </c>
       <c r="E31">
-        <v>6728.326710910182</v>
+        <v>6728.326710910191</v>
       </c>
       <c r="F31">
-        <v>6072.221531206085</v>
+        <v>6072.221531206096</v>
       </c>
       <c r="G31">
-        <v>10.26377533103394</v>
+        <v>10.26377533103398</v>
       </c>
       <c r="H31">
-        <v>29.83386518872213</v>
+        <v>29.8338651887222</v>
       </c>
       <c r="I31">
-        <v>1.952689388831729E-09</v>
+        <v>1.952689388831723E-09</v>
       </c>
       <c r="J31">
-        <v>1.447644165579278E-09</v>
+        <v>1.447644165579272E-09</v>
       </c>
       <c r="K31">
-        <v>0.00034381289367037</v>
+        <v>0.0003438128936703716</v>
       </c>
       <c r="L31">
         <v>0.1292905356657511</v>
       </c>
       <c r="M31">
-        <v>902.9679988037296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.1292905356657511</v>
+      </c>
+      <c r="N31">
+        <v>902.9679988037307</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>81.56749265873356</v>
+        <v>81.56749265873347</v>
       </c>
       <c r="B32">
-        <v>52686.33013841473</v>
+        <v>52686.33013841375</v>
       </c>
       <c r="C32">
-        <v>79.23638637581767</v>
+        <v>79.23638637581625</v>
       </c>
       <c r="D32">
-        <v>34824.34607981584</v>
+        <v>34824.34607981586</v>
       </c>
       <c r="E32">
-        <v>6692.610347849957</v>
+        <v>6692.610347849963</v>
       </c>
       <c r="F32">
-        <v>6029.197306177433</v>
+        <v>6029.197306177438</v>
       </c>
       <c r="G32">
-        <v>9.881171003368181</v>
+        <v>9.881171003368133</v>
       </c>
       <c r="H32">
-        <v>29.0126959857668</v>
+        <v>29.01269598576679</v>
       </c>
       <c r="I32">
-        <v>1.998187371566177E-09</v>
+        <v>1.998187371566173E-09</v>
       </c>
       <c r="J32">
-        <v>1.518295156805213E-09</v>
+        <v>1.518295156805208E-09</v>
       </c>
       <c r="K32">
-        <v>0.0003282808957409831</v>
+        <v>0.0003282808957409842</v>
       </c>
       <c r="L32">
-        <v>0.1289814762323253</v>
+        <v>0.1289814762323254</v>
       </c>
       <c r="M32">
-        <v>895.2327477186393</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.1289814762323254</v>
+      </c>
+      <c r="N32">
+        <v>895.2327477186409</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>82.64390382758594</v>
+        <v>82.64390382758586</v>
       </c>
       <c r="B33">
-        <v>60072.89570696099</v>
+        <v>60072.89570695976</v>
       </c>
       <c r="C33">
-        <v>89.35308891865503</v>
+        <v>89.35308891865326</v>
       </c>
       <c r="D33">
-        <v>34644.36438767133</v>
+        <v>34644.36438767135</v>
       </c>
       <c r="E33">
-        <v>6657.355108476603</v>
+        <v>6657.355108476608</v>
       </c>
       <c r="F33">
-        <v>5986.779985775603</v>
+        <v>5986.779985775608</v>
       </c>
       <c r="G33">
-        <v>9.543848637047706</v>
+        <v>9.543848637047715</v>
       </c>
       <c r="H33">
-        <v>28.29356307703379</v>
+        <v>28.29356307703384</v>
       </c>
       <c r="I33">
-        <v>2.045739015399535E-09</v>
+        <v>2.045739015399529E-09</v>
       </c>
       <c r="J33">
-        <v>1.592394998919015E-09</v>
+        <v>1.592394998919007E-09</v>
       </c>
       <c r="K33">
-        <v>0.000314046515383456</v>
+        <v>0.0003140465153834575</v>
       </c>
       <c r="L33">
-        <v>0.1286189715556182</v>
+        <v>0.1286189715556183</v>
       </c>
       <c r="M33">
-        <v>887.3550118743522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.1286189715556183</v>
+      </c>
+      <c r="N33">
+        <v>887.3550118743535</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>83.72031499643832</v>
+        <v>83.72031499643823</v>
       </c>
       <c r="B34">
-        <v>68239.84826418632</v>
+        <v>68239.84826418606</v>
       </c>
       <c r="C34">
-        <v>100.4171062051166</v>
+        <v>100.4171062051164</v>
       </c>
       <c r="D34">
         <v>34466.05500987329</v>
       </c>
       <c r="E34">
-        <v>6622.437833772611</v>
+        <v>6622.437833772613</v>
       </c>
       <c r="F34">
         <v>5944.85376933499</v>
       </c>
       <c r="G34">
-        <v>9.24633023591911</v>
+        <v>9.246330235919134</v>
       </c>
       <c r="H34">
-        <v>27.66719645867882</v>
+        <v>27.66719645867888</v>
       </c>
       <c r="I34">
-        <v>2.095468921616179E-09</v>
+        <v>2.095468921616178E-09</v>
       </c>
       <c r="J34">
-        <v>1.669987198607707E-09</v>
+        <v>1.669987198607703E-09</v>
       </c>
       <c r="K34">
-        <v>0.0003009578246161547</v>
+        <v>0.0003009578246161555</v>
       </c>
       <c r="L34">
-        <v>0.1281974887643442</v>
+        <v>0.1281974887643443</v>
       </c>
       <c r="M34">
-        <v>879.3622964902324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.1281974887643443</v>
+      </c>
+      <c r="N34">
+        <v>879.3622964902326</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>84.79672616529072</v>
+        <v>84.79672616529062</v>
       </c>
       <c r="B35">
-        <v>77241.492690624</v>
+        <v>77241.49269062355</v>
       </c>
       <c r="C35">
-        <v>112.4845891470488</v>
+        <v>112.4845891470482</v>
       </c>
       <c r="D35">
-        <v>34289.1899326886</v>
+        <v>34289.18993268862</v>
       </c>
       <c r="E35">
-        <v>6587.744955098377</v>
+        <v>6587.744955098387</v>
       </c>
       <c r="F35">
-        <v>5903.312491664799</v>
+        <v>5903.312491664813</v>
       </c>
       <c r="G35">
-        <v>8.983692719242969</v>
+        <v>8.983692719242928</v>
       </c>
       <c r="H35">
-        <v>27.12526946983806</v>
+        <v>27.12526946983809</v>
       </c>
       <c r="I35">
-        <v>2.147510212209921E-09</v>
+        <v>2.147510212209913E-09</v>
       </c>
       <c r="J35">
-        <v>1.751103833477983E-09</v>
+        <v>1.751103833477975E-09</v>
       </c>
       <c r="K35">
-        <v>0.0002888819935938021</v>
+        <v>0.0002888819935938032</v>
       </c>
       <c r="L35">
-        <v>0.1277111446932591</v>
+        <v>0.1277111446932592</v>
       </c>
       <c r="M35">
-        <v>871.2797568865594</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.1277111446932592</v>
+      </c>
+      <c r="N35">
+        <v>871.2797568865617</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>85.8731373341431</v>
+        <v>85.873137334143</v>
       </c>
       <c r="B36">
-        <v>87133.66338291251</v>
+        <v>87133.66338291147</v>
       </c>
       <c r="C36">
-        <v>125.6130837547014</v>
+        <v>125.6130837547</v>
       </c>
       <c r="D36">
-        <v>34113.55292459663</v>
+        <v>34113.55292459665</v>
       </c>
       <c r="E36">
-        <v>6553.171554416425</v>
+        <v>6553.171554416443</v>
       </c>
       <c r="F36">
-        <v>5862.058679816774</v>
+        <v>5862.05867981679</v>
       </c>
       <c r="G36">
         <v>8.751531079103508</v>
       </c>
       <c r="H36">
-        <v>26.66032412442259</v>
+        <v>26.66032412442264</v>
       </c>
       <c r="I36">
-        <v>2.202005397369591E-09</v>
+        <v>2.202005397369586E-09</v>
       </c>
       <c r="J36">
-        <v>1.835765714808429E-09</v>
+        <v>1.835765714808421E-09</v>
       </c>
       <c r="K36">
-        <v>0.0002777034138174933</v>
+        <v>0.0002777034138174945</v>
       </c>
       <c r="L36">
         <v>0.1271539231205995</v>
       </c>
       <c r="M36">
-        <v>863.1298295822921</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.1271539231205995</v>
+      </c>
+      <c r="N36">
+        <v>863.1298295822932</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>86.94954850299548</v>
+        <v>86.9495485029954</v>
       </c>
       <c r="B37">
-        <v>97973.65450315119</v>
+        <v>97973.65450314916</v>
       </c>
       <c r="C37">
-        <v>139.8615482567979</v>
+        <v>139.861548256795</v>
       </c>
       <c r="D37">
-        <v>33938.93845348157</v>
+        <v>33938.93845348158</v>
       </c>
       <c r="E37">
-        <v>6518.620497460439</v>
+        <v>6518.620497460442</v>
       </c>
       <c r="F37">
-        <v>5821.002684359981</v>
+        <v>5821.002684359986</v>
       </c>
       <c r="G37">
-        <v>8.545919485958805</v>
+        <v>8.545919485958818</v>
       </c>
       <c r="H37">
-        <v>26.26569883184333</v>
+        <v>26.26569883184332</v>
       </c>
       <c r="I37">
-        <v>2.259107319674635E-09</v>
+        <v>2.259107319674626E-09</v>
       </c>
       <c r="J37">
-        <v>1.923982802815673E-09</v>
+        <v>1.923982802815664E-09</v>
       </c>
       <c r="K37">
-        <v>0.0002673216657738999</v>
+        <v>0.0002673216657739009</v>
       </c>
       <c r="L37">
-        <v>0.1265199166839673</v>
+        <v>0.1265199166839674</v>
       </c>
       <c r="M37">
-        <v>854.9320489402879</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.1265199166839674</v>
+      </c>
+      <c r="N37">
+        <v>854.9320489402891</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>88.02595967184787</v>
+        <v>88.02595967184776</v>
       </c>
       <c r="B38">
-        <v>109820.1492094612</v>
+        <v>109820.1492094607</v>
       </c>
       <c r="C38">
-        <v>155.2903798047901</v>
+        <v>155.2903798047895</v>
       </c>
       <c r="D38">
-        <v>33765.15068338918</v>
+        <v>33765.1506833892</v>
       </c>
       <c r="E38">
-        <v>6484.001636699027</v>
+        <v>6484.001636699028</v>
       </c>
       <c r="F38">
-        <v>5780.061882019556</v>
+        <v>5780.06188201956</v>
       </c>
       <c r="G38">
-        <v>8.363371835248333</v>
+        <v>8.363371835248344</v>
       </c>
       <c r="H38">
         <v>25.93545949325499</v>
       </c>
       <c r="I38">
-        <v>2.318980185446433E-09</v>
+        <v>2.318980185446423E-09</v>
       </c>
       <c r="J38">
-        <v>2.015754867857422E-09</v>
+        <v>2.01575486785741E-09</v>
       </c>
       <c r="K38">
-        <v>0.0002576495294288336</v>
+        <v>0.0002576495294288347</v>
       </c>
       <c r="L38">
-        <v>0.1258035850148399</v>
+        <v>0.1258035850148401</v>
       </c>
       <c r="M38">
-        <v>846.7030118521006</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.1258035850148401</v>
+      </c>
+      <c r="N38">
+        <v>846.703011852102</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>89.10237084070026</v>
+        <v>89.10237084070016</v>
       </c>
       <c r="B39">
-        <v>122733.1483676984</v>
+        <v>122733.1483676974</v>
       </c>
       <c r="C39">
-        <v>171.96145130566</v>
+        <v>171.9614513056588</v>
       </c>
       <c r="D39">
-        <v>33592.00254263561</v>
+        <v>33592.00254263562</v>
       </c>
       <c r="E39">
         <v>6449.231080133525</v>
       </c>
       <c r="F39">
-        <v>5739.159945730978</v>
+        <v>5739.159945730977</v>
       </c>
       <c r="G39">
-        <v>8.200802827066523</v>
+        <v>8.200802827066491</v>
       </c>
       <c r="H39">
-        <v>25.66433462328028</v>
+        <v>25.66433462328026</v>
       </c>
       <c r="I39">
-        <v>2.381800695013472E-09</v>
+        <v>2.381800695013467E-09</v>
       </c>
       <c r="J39">
-        <v>2.111072383039563E-09</v>
+        <v>2.111072383039554E-09</v>
       </c>
       <c r="K39">
-        <v>0.0002486111474742771</v>
+        <v>0.0002486111474742779</v>
       </c>
       <c r="L39">
-        <v>0.125000023739039</v>
+        <v>0.1250000237390391</v>
       </c>
       <c r="M39">
-        <v>838.4564547000414</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.1250000237390391</v>
+      </c>
+      <c r="N39">
+        <v>838.4564547000425</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>90.17878200955263</v>
+        <v>90.17878200955253</v>
       </c>
       <c r="B40">
-        <v>136773.8992091986</v>
+        <v>136773.8992091967</v>
       </c>
       <c r="C40">
-        <v>189.9381589608885</v>
+        <v>189.9381589608859</v>
       </c>
       <c r="D40">
-        <v>33419.3148558732</v>
+        <v>33419.31485587321</v>
       </c>
       <c r="E40">
-        <v>6414.230521454933</v>
+        <v>6414.230521454946</v>
       </c>
       <c r="F40">
-        <v>5698.226177656654</v>
+        <v>5698.226177656664</v>
       </c>
       <c r="G40">
-        <v>8.055490355557785</v>
+        <v>8.055490355557813</v>
       </c>
       <c r="H40">
-        <v>25.44765488803391</v>
+        <v>25.44765488803396</v>
       </c>
       <c r="I40">
-        <v>2.447759285150372E-09</v>
+        <v>2.447759285150371E-09</v>
       </c>
       <c r="J40">
-        <v>2.209917626708967E-09</v>
+        <v>2.209917626708961E-09</v>
       </c>
       <c r="K40">
-        <v>0.000240140392132718</v>
+        <v>0.0002401403921327186</v>
       </c>
       <c r="L40">
-        <v>0.1241052421673924</v>
+        <v>0.1241052421673925</v>
       </c>
       <c r="M40">
-        <v>830.2034105332755</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.1241052421673925</v>
+      </c>
+      <c r="N40">
+        <v>830.2034105332752</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>91.25519317840502</v>
+        <v>91.25519317840492</v>
       </c>
       <c r="B41">
-        <v>152004.8243658301</v>
+        <v>152004.8243658271</v>
       </c>
       <c r="C41">
-        <v>209.2854811438662</v>
+        <v>209.2854811438621</v>
       </c>
       <c r="D41">
-        <v>33246.9155334392</v>
+        <v>33246.91553343921</v>
       </c>
       <c r="E41">
-        <v>6378.92662679473</v>
+        <v>6378.92662679474</v>
       </c>
       <c r="F41">
-        <v>5657.194900432926</v>
+        <v>5657.194900432938</v>
       </c>
       <c r="G41">
-        <v>7.92503973857605</v>
+        <v>7.925039738576046</v>
       </c>
       <c r="H41">
-        <v>25.28129725345215</v>
+        <v>25.2812972534522</v>
       </c>
       <c r="I41">
-        <v>2.517061498680577E-09</v>
+        <v>2.51706149868057E-09</v>
       </c>
       <c r="J41">
-        <v>2.312265967669213E-09</v>
+        <v>2.3122659676692E-09</v>
       </c>
       <c r="K41">
-        <v>0.0002321794491436623</v>
+        <v>0.0002321794491436632</v>
       </c>
       <c r="L41">
-        <v>0.1231164490742603</v>
+        <v>0.1231164490742604</v>
       </c>
       <c r="M41">
-        <v>821.952419126775</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.1231164490742604</v>
+      </c>
+      <c r="N41">
+        <v>821.9524191267765</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>92.33160434725743</v>
+        <v>92.3316043472573</v>
       </c>
       <c r="B42">
-        <v>168489.4516820172</v>
+        <v>168489.4516820145</v>
       </c>
       <c r="C42">
-        <v>230.0700493255153</v>
+        <v>230.0700493255119</v>
       </c>
       <c r="D42">
-        <v>33074.63881195074</v>
+        <v>33074.63881195075</v>
       </c>
       <c r="E42">
-        <v>6343.250473176976</v>
+        <v>6343.250473176979</v>
       </c>
       <c r="F42">
-        <v>5616.004901803134</v>
+        <v>5616.00490180314</v>
       </c>
       <c r="G42">
-        <v>7.807350127875791</v>
+        <v>7.807350127875782</v>
       </c>
       <c r="H42">
         <v>25.16163379100186</v>
       </c>
       <c r="I42">
-        <v>2.589929498228127E-09</v>
+        <v>2.589929498228116E-09</v>
       </c>
       <c r="J42">
-        <v>2.418087301905318E-09</v>
+        <v>2.418087301905307E-09</v>
       </c>
       <c r="K42">
-        <v>0.0002246776108261827</v>
+        <v>0.0002246776108261834</v>
       </c>
       <c r="L42">
-        <v>0.1220323439570558</v>
+        <v>0.1220323439570559</v>
       </c>
       <c r="M42">
-        <v>813.7097676454571</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.1220323439570559</v>
+      </c>
+      <c r="N42">
+        <v>813.7097676454588</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>93.40801551610978</v>
+        <v>93.40801551610969</v>
       </c>
       <c r="B43">
-        <v>186292.3451750209</v>
+        <v>186292.345175018</v>
       </c>
       <c r="C43">
-        <v>252.3602318611599</v>
+        <v>252.3602318611561</v>
       </c>
       <c r="D43">
-        <v>32902.32454067122</v>
+        <v>32902.32454067124</v>
       </c>
       <c r="E43">
-        <v>6307.137033770892</v>
+        <v>6307.137033770895</v>
       </c>
       <c r="F43">
-        <v>5574.598927800566</v>
+        <v>5574.598927800575</v>
       </c>
       <c r="G43">
-        <v>7.70058329462221</v>
+        <v>7.700583294622241</v>
       </c>
       <c r="H43">
-        <v>25.08548508062356</v>
+        <v>25.08548508062352</v>
       </c>
       <c r="I43">
-        <v>2.666603743415976E-09</v>
+        <v>2.66660374341596E-09</v>
       </c>
       <c r="J43">
-        <v>2.527347607269797E-09</v>
+        <v>2.527347607269783E-09</v>
       </c>
       <c r="K43">
-        <v>0.0002175902587527697</v>
+        <v>0.0002175902587527705</v>
       </c>
       <c r="L43">
-        <v>0.1208534040382434</v>
+        <v>0.1208534040382435</v>
       </c>
       <c r="M43">
-        <v>805.479744514877</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.1208534040382435</v>
+      </c>
+      <c r="N43">
+        <v>805.4797445148781</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>94.48442668496219</v>
+        <v>94.48442668496207</v>
       </c>
       <c r="B44">
-        <v>205479.0374901255</v>
+        <v>205479.0374901242</v>
       </c>
       <c r="C44">
-        <v>276.2262315830914</v>
+        <v>276.22623158309</v>
       </c>
       <c r="D44">
-        <v>32729.81750866946</v>
+        <v>32729.81750866949</v>
       </c>
       <c r="E44">
-        <v>6270.524705115305</v>
+        <v>6270.524705115306</v>
       </c>
       <c r="F44">
-        <v>5532.923219736055</v>
+        <v>5532.923219736059</v>
       </c>
       <c r="G44">
-        <v>7.603134875315213</v>
+        <v>7.60313487531517</v>
       </c>
       <c r="H44">
-        <v>25.05007807498032</v>
+        <v>25.05007807498025</v>
       </c>
       <c r="I44">
-        <v>2.747344853491369E-09</v>
+        <v>2.747344853491356E-09</v>
       </c>
       <c r="J44">
-        <v>2.640010581958997E-09</v>
+        <v>2.640010581958985E-09</v>
       </c>
       <c r="K44">
-        <v>0.0002108780118420409</v>
+        <v>0.0002108780118420415</v>
       </c>
       <c r="L44">
-        <v>0.1195821449448433</v>
+        <v>0.1195821449448435</v>
       </c>
       <c r="M44">
-        <v>797.2648934995777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.1195821449448435</v>
+      </c>
+      <c r="N44">
+        <v>797.2648934995796</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>95.56083785381458</v>
+        <v>95.56083785381445</v>
       </c>
       <c r="B45">
-        <v>226115.9641770658</v>
+        <v>226115.9641770601</v>
       </c>
       <c r="C45">
-        <v>301.7401983059127</v>
+        <v>301.740198305905</v>
       </c>
       <c r="D45">
-        <v>32556.96680823043</v>
+        <v>32556.96680823045</v>
       </c>
       <c r="E45">
-        <v>6233.354871612322</v>
+        <v>6233.35487161233</v>
       </c>
       <c r="F45">
-        <v>5490.927090390488</v>
+        <v>5490.927090390494</v>
       </c>
       <c r="G45">
-        <v>7.513608081975267</v>
+        <v>7.513608081975229</v>
       </c>
       <c r="H45">
-        <v>25.05300823805793</v>
+        <v>25.0530082380579</v>
       </c>
       <c r="I45">
-        <v>2.832435680482052E-09</v>
+        <v>2.832435680482039E-09</v>
       </c>
       <c r="J45">
-        <v>2.756039333573583E-09</v>
+        <v>2.756039333573568E-09</v>
       </c>
       <c r="K45">
-        <v>0.0002045060149521904</v>
+        <v>0.0002045060149521914</v>
       </c>
       <c r="L45">
-        <v>0.1182233179338507</v>
+        <v>0.118223317933851</v>
       </c>
       <c r="M45">
-        <v>789.0662587563105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.118223317933851</v>
+      </c>
+      <c r="N45">
+        <v>789.0662587563125</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>96.63724902266696</v>
+        <v>96.63724902266684</v>
       </c>
       <c r="B46">
-        <v>248270.4000990871</v>
+        <v>248270.4000990861</v>
       </c>
       <c r="C46">
-        <v>328.9763575499163</v>
+        <v>328.9763575499152</v>
       </c>
       <c r="D46">
-        <v>32383.62523036126</v>
+        <v>32383.62523036129</v>
       </c>
       <c r="E46">
-        <v>6195.571502745563</v>
+        <v>6195.571502745557</v>
       </c>
       <c r="F46">
-        <v>5448.562534991147</v>
+        <v>5448.562534991144</v>
       </c>
       <c r="G46">
-        <v>7.43078982165602</v>
+        <v>7.430789821656047</v>
       </c>
       <c r="H46">
         <v>25.09220573948091</v>
       </c>
       <c r="I46">
-        <v>2.922183621630301E-09</v>
+        <v>2.922183621630286E-09</v>
       </c>
       <c r="J46">
-        <v>2.875398087895304E-09</v>
+        <v>2.875398087895285E-09</v>
       </c>
       <c r="K46">
-        <v>0.0001984433445625252</v>
+        <v>0.0001984433445625262</v>
       </c>
       <c r="L46">
-        <v>0.1167839940750301</v>
+        <v>0.1167839940750304</v>
       </c>
       <c r="M46">
-        <v>780.8836147171372</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.1167839940750304</v>
+      </c>
+      <c r="N46">
+        <v>780.8836147171384</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>97.71366019151934</v>
+        <v>97.71366019151922</v>
       </c>
       <c r="B47">
-        <v>272010.3982762221</v>
+        <v>272010.3982762197</v>
       </c>
       <c r="C47">
-        <v>358.0111570246955</v>
+        <v>358.0111570246926</v>
       </c>
       <c r="D47">
-        <v>32209.64868857641</v>
+        <v>32209.64868857642</v>
       </c>
       <c r="E47">
-        <v>6157.120778650539</v>
+        <v>6157.120778650542</v>
       </c>
       <c r="F47">
-        <v>5405.783872744422</v>
+        <v>5405.783872744425</v>
       </c>
       <c r="G47">
-        <v>7.353629129152655</v>
+        <v>7.353629129152646</v>
       </c>
       <c r="H47">
-        <v>25.16590546922955</v>
+        <v>25.16590546922956</v>
       </c>
       <c r="I47">
-        <v>3.016923204111807E-09</v>
+        <v>3.016923204111799E-09</v>
       </c>
       <c r="J47">
-        <v>2.998053889944687E-09</v>
+        <v>2.998053889944675E-09</v>
       </c>
       <c r="K47">
-        <v>0.0001926625107227918</v>
+        <v>0.0001926625107227923</v>
       </c>
       <c r="L47">
-        <v>0.1152734831486769</v>
+        <v>0.115273483148677</v>
       </c>
       <c r="M47">
-        <v>772.7156770937718</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.115273483148677</v>
+      </c>
+      <c r="N47">
+        <v>772.715677093773</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>98.79007136037174</v>
+        <v>98.7900713603716</v>
       </c>
       <c r="B48">
-        <v>297404.731461078</v>
+        <v>297404.7314610737</v>
       </c>
       <c r="C48">
-        <v>388.9234326971033</v>
+        <v>388.9234326970979</v>
       </c>
       <c r="D48">
-        <v>32034.89566744306</v>
+        <v>32034.89566744308</v>
       </c>
       <c r="E48">
-        <v>6117.950739841674</v>
+        <v>6117.950739841686</v>
       </c>
       <c r="F48">
-        <v>5362.547414895248</v>
+        <v>5362.547414895255</v>
       </c>
       <c r="G48">
-        <v>7.281217789307955</v>
+        <v>7.281217789307974</v>
       </c>
       <c r="H48">
-        <v>25.27262063236657</v>
+        <v>25.27262063236661</v>
       </c>
       <c r="I48">
-        <v>3.117018980041211E-09</v>
+        <v>3.117018980041209E-09</v>
       </c>
       <c r="J48">
-        <v>3.123978274100098E-09</v>
+        <v>3.123978274100082E-09</v>
       </c>
       <c r="K48">
-        <v>0.000187139037423614</v>
+        <v>0.0001871390374236145</v>
       </c>
       <c r="L48">
-        <v>0.1137030484086134</v>
+        <v>0.1137030484086135</v>
       </c>
       <c r="M48">
+        <v>0.1137030484086135</v>
+      </c>
+      <c r="N48">
         <v>764.5602931461763</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>99.86648252922411</v>
+        <v>99.866482529224</v>
       </c>
       <c r="B49">
-        <v>324522.8367483745</v>
+        <v>324522.8367483699</v>
       </c>
       <c r="C49">
-        <v>421.7945965992828</v>
+        <v>421.7945965992769</v>
       </c>
       <c r="D49">
-        <v>31859.2266926309</v>
+        <v>31859.22669263092</v>
       </c>
       <c r="E49">
-        <v>6078.010957069562</v>
+        <v>6078.01095706957</v>
       </c>
       <c r="F49">
-        <v>5318.811155474097</v>
+        <v>5318.811155474105</v>
       </c>
       <c r="G49">
-        <v>7.212773008375217</v>
+        <v>7.212773008375215</v>
       </c>
       <c r="H49">
-        <v>25.41111968715942</v>
+        <v>25.4111196871594</v>
       </c>
       <c r="I49">
-        <v>3.22286877563608E-09</v>
+        <v>3.222868775636068E-09</v>
       </c>
       <c r="J49">
-        <v>3.253148884743253E-09</v>
+        <v>3.253148884743239E-09</v>
       </c>
       <c r="K49">
-        <v>0.0001818511064870537</v>
+        <v>0.0001818511064870544</v>
       </c>
       <c r="L49">
-        <v>0.1120854093363512</v>
+        <v>0.1120854093363514</v>
       </c>
       <c r="M49">
-        <v>756.4146107128377</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.1120854093363514</v>
+      </c>
+      <c r="N49">
+        <v>756.4146107128387</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>100.9428936980765</v>
+        <v>100.9428936980764</v>
       </c>
       <c r="B50">
-        <v>353434.7635294491</v>
+        <v>353434.7635294437</v>
       </c>
       <c r="C50">
-        <v>456.7088489209018</v>
+        <v>456.7088489208949</v>
       </c>
       <c r="D50">
-        <v>31682.50381943857</v>
+        <v>31682.50381943858</v>
       </c>
       <c r="E50">
-        <v>6037.252217440726</v>
+        <v>6037.252217440737</v>
       </c>
       <c r="F50">
-        <v>5274.534481070821</v>
+        <v>5274.534481070829</v>
       </c>
       <c r="G50">
-        <v>7.14762198499054</v>
+        <v>7.147621984990494</v>
       </c>
       <c r="H50">
-        <v>25.5804064005447</v>
+        <v>25.58040640054465</v>
       </c>
       <c r="I50">
-        <v>3.334907345330654E-09</v>
+        <v>3.334907345330649E-09</v>
       </c>
       <c r="J50">
-        <v>3.385551033756907E-09</v>
+        <v>3.385551033756893E-09</v>
       </c>
       <c r="K50">
-        <v>0.000176779252777675</v>
+        <v>0.0001767792527776755</v>
       </c>
       <c r="L50">
-        <v>0.1104340672040983</v>
+        <v>0.1104340672040984</v>
       </c>
       <c r="M50">
-        <v>748.2752264472751</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.1104340672040984</v>
+      </c>
+      <c r="N50">
+        <v>748.2752264472762</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>102.0193048669289</v>
+        <v>102.0193048669288</v>
       </c>
       <c r="B51">
-        <v>384211.1251200858</v>
+        <v>384211.1251200798</v>
       </c>
       <c r="C51">
-        <v>493.7534173821344</v>
+        <v>493.7534173821268</v>
       </c>
       <c r="D51">
-        <v>31504.59013696954</v>
+        <v>31504.59013696955</v>
       </c>
       <c r="E51">
-        <v>5995.626223072965</v>
+        <v>5995.62622307297</v>
       </c>
       <c r="F51">
-        <v>5229.677896134532</v>
+        <v>5229.677896134534</v>
       </c>
       <c r="G51">
-        <v>7.085188228411826</v>
+        <v>7.085188228411817</v>
       </c>
       <c r="H51">
-        <v>25.77970281061917</v>
+        <v>25.77970281061915</v>
       </c>
       <c r="I51">
-        <v>3.453610489809607E-09</v>
+        <v>3.4536104898096E-09</v>
       </c>
       <c r="J51">
-        <v>3.521179185984788E-09</v>
+        <v>3.521179185984773E-09</v>
       </c>
       <c r="K51">
-        <v>0.0001719061008960444</v>
+        <v>0.0001719061008960448</v>
       </c>
       <c r="L51">
-        <v>0.1087625300634994</v>
+        <v>0.1087625300634996</v>
       </c>
       <c r="M51">
-        <v>740.1383143309695</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.1087625300634996</v>
+      </c>
+      <c r="N51">
+        <v>740.1383143309699</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>103.0957160357813</v>
+        <v>103.0957160357811</v>
       </c>
       <c r="B52">
-        <v>416923.0544149817</v>
+        <v>416923.0544149793</v>
       </c>
       <c r="C52">
-        <v>533.0188274094045</v>
+        <v>533.018827409402</v>
       </c>
       <c r="D52">
-        <v>31325.34928530287</v>
+        <v>31325.34928530289</v>
       </c>
       <c r="E52">
-        <v>5953.085298681225</v>
+        <v>5953.085298681232</v>
       </c>
       <c r="F52">
-        <v>5184.202760437875</v>
+        <v>5184.202760437883</v>
       </c>
       <c r="G52">
-        <v>7.024979473206066</v>
+        <v>7.024979473206087</v>
       </c>
       <c r="H52">
-        <v>26.00843490559529</v>
+        <v>26.00843490559528</v>
       </c>
       <c r="I52">
-        <v>3.579499706630817E-09</v>
+        <v>3.579499706630807E-09</v>
       </c>
       <c r="J52">
-        <v>3.660038368271174E-09</v>
+        <v>3.660038368271161E-09</v>
       </c>
       <c r="K52">
-        <v>0.0001672161355147737</v>
+        <v>0.0001672161355147742</v>
       </c>
       <c r="L52">
-        <v>0.1070835400815708</v>
+        <v>0.1070835400815709</v>
       </c>
       <c r="M52">
-        <v>731.9997359124799</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.1070835400815709</v>
+      </c>
+      <c r="N52">
+        <v>731.9997359124803</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>104.1721272046337</v>
+        <v>104.1721272046335</v>
       </c>
       <c r="B53">
-        <v>451642.1639546955</v>
+        <v>451642.1639546945</v>
       </c>
       <c r="C53">
-        <v>574.5992072435457</v>
+        <v>574.5992072435454</v>
       </c>
       <c r="D53">
-        <v>31144.64498315185</v>
+        <v>31144.64498315188</v>
       </c>
       <c r="E53">
         <v>5909.582104589466</v>
       </c>
       <c r="F53">
-        <v>5138.071035459207</v>
+        <v>5138.071035459209</v>
       </c>
       <c r="G53">
-        <v>6.96657704427405</v>
+        <v>6.966577044273984</v>
       </c>
       <c r="H53">
-        <v>26.26622085164853</v>
+        <v>26.26622085164839</v>
       </c>
       <c r="I53">
-        <v>3.713147453645773E-09</v>
+        <v>3.713147453645745E-09</v>
       </c>
       <c r="J53">
-        <v>3.802145501784078E-09</v>
+        <v>3.802145501784058E-09</v>
       </c>
       <c r="K53">
-        <v>0.0001626954991683905</v>
+        <v>0.0001626954991683912</v>
       </c>
       <c r="L53">
-        <v>0.1054084071202139</v>
+        <v>0.1054084071202142</v>
       </c>
       <c r="M53">
-        <v>723.8551339193335</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.1054084071202142</v>
+      </c>
+      <c r="N53">
+        <v>723.855133919336</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>105.2485383734861</v>
+        <v>105.2485383734859</v>
       </c>
       <c r="B54">
-        <v>488440.5108317302</v>
+        <v>488440.5108317243</v>
       </c>
       <c r="C54">
-        <v>618.5926328117683</v>
+        <v>618.5926328117613</v>
       </c>
       <c r="D54">
-        <v>30962.34056362781</v>
+        <v>30962.34056362783</v>
       </c>
       <c r="E54">
-        <v>5865.069351742695</v>
+        <v>5865.069351742687</v>
       </c>
       <c r="F54">
-        <v>5091.245036527219</v>
+        <v>5091.245036527211</v>
       </c>
       <c r="G54">
-        <v>6.909626532950673</v>
+        <v>6.909626532950676</v>
       </c>
       <c r="H54">
-        <v>26.55286162776281</v>
+        <v>26.55286162776277</v>
       </c>
       <c r="I54">
-        <v>3.855183119202502E-09</v>
+        <v>3.855183119202485E-09</v>
       </c>
       <c r="J54">
-        <v>3.947530660904055E-09</v>
+        <v>3.947530660904031E-09</v>
       </c>
       <c r="K54">
-        <v>0.0001583318126486907</v>
+        <v>0.0001583318126486914</v>
       </c>
       <c r="L54">
-        <v>0.103746527855538</v>
+        <v>0.1037465278555382</v>
       </c>
       <c r="M54">
-        <v>715.7000109557579</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.1037465278555382</v>
+      </c>
+      <c r="N54">
+        <v>715.7000109557587</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>106.3249495423384</v>
+        <v>106.3249495423383</v>
       </c>
       <c r="B55">
-        <v>527390.5669113516</v>
+        <v>527390.5669113443</v>
       </c>
       <c r="C55">
-        <v>665.1015180031391</v>
+        <v>665.1015180031301</v>
       </c>
       <c r="D55">
-        <v>30778.29851582686</v>
+        <v>30778.29851582689</v>
       </c>
       <c r="E55">
-        <v>5819.499515349064</v>
+        <v>5819.49951534908</v>
       </c>
       <c r="F55">
-        <v>5043.687187636964</v>
+        <v>5043.68718763698</v>
       </c>
       <c r="G55">
-        <v>6.853829653266381</v>
+        <v>6.85382965326641</v>
       </c>
       <c r="H55">
-        <v>26.86833395398027</v>
+        <v>26.86833395398026</v>
       </c>
       <c r="I55">
-        <v>4.006299809626293E-09</v>
+        <v>4.006299809626268E-09</v>
       </c>
       <c r="J55">
-        <v>4.096238264993484E-09</v>
+        <v>4.096238264993461E-09</v>
       </c>
       <c r="K55">
-        <v>0.0001541140142301975</v>
+        <v>0.0001541140142301982</v>
       </c>
       <c r="L55">
-        <v>0.1021051287733981</v>
+        <v>0.1021051287733984</v>
       </c>
       <c r="M55">
-        <v>707.5297949745436</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.1021051287733984</v>
+      </c>
+      <c r="N55">
+        <v>707.5297949745449</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>107.4013607111908</v>
+        <v>107.4013607111907</v>
       </c>
       <c r="B56">
-        <v>568565.1948999723</v>
+        <v>568565.1948999644</v>
       </c>
       <c r="C56">
-        <v>714.2330569171121</v>
+        <v>714.233056917102</v>
       </c>
       <c r="D56">
-        <v>30592.38003003323</v>
+        <v>30592.38003003326</v>
       </c>
       <c r="E56">
-        <v>5772.824543815125</v>
+        <v>5772.824543815126</v>
       </c>
       <c r="F56">
-        <v>4995.359775883989</v>
+        <v>4995.35977588399</v>
       </c>
       <c r="G56">
-        <v>6.798937156563865</v>
+        <v>6.798937156563894</v>
       </c>
       <c r="H56">
-        <v>27.21278543031039</v>
+        <v>27.21278543031035</v>
       </c>
       <c r="I56">
-        <v>4.16726208433691E-09</v>
+        <v>4.167262084336885E-09</v>
       </c>
       <c r="J56">
-        <v>4.248328211855535E-09</v>
+        <v>4.248328211855515E-09</v>
       </c>
       <c r="K56">
-        <v>0.0001500322147997508</v>
+        <v>0.0001500322147997513</v>
       </c>
       <c r="L56">
-        <v>0.1004892279102107</v>
+        <v>0.1004892279102109</v>
       </c>
       <c r="M56">
-        <v>699.3398931280834</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.1004892279102109</v>
+      </c>
+      <c r="N56">
+        <v>699.3398931280843</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>108.4777718800432</v>
+        <v>108.4777718800431</v>
       </c>
       <c r="B57">
-        <v>612037.6308593667</v>
+        <v>612037.6308593508</v>
       </c>
       <c r="C57">
-        <v>766.0997257230239</v>
+        <v>766.0997257230025</v>
       </c>
       <c r="D57">
-        <v>30404.44454438315</v>
+        <v>30404.44454438318</v>
       </c>
       <c r="E57">
-        <v>5724.995559648043</v>
+        <v>5724.995559648054</v>
       </c>
       <c r="F57">
-        <v>4946.224702474207</v>
+        <v>4946.224702474216</v>
       </c>
       <c r="G57">
-        <v>6.744742692250089</v>
+        <v>6.744742692250066</v>
       </c>
       <c r="H57">
-        <v>27.58653183746202</v>
+        <v>27.58653183746193</v>
       </c>
       <c r="I57">
-        <v>4.338914792959446E-09</v>
+        <v>4.338914792959417E-09</v>
       </c>
       <c r="J57">
-        <v>4.40387696368812E-09</v>
+        <v>4.403876963688099E-09</v>
       </c>
       <c r="K57">
-        <v>0.0001460775666303986</v>
+        <v>0.0001460775666303993</v>
       </c>
       <c r="L57">
-        <v>0.09890177640778153</v>
+        <v>0.09890177640778175</v>
       </c>
       <c r="M57">
-        <v>691.125735483091</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.09890177640778175</v>
+      </c>
+      <c r="N57">
+        <v>691.125735483093</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>109.5541830488956</v>
+        <v>109.5541830488954</v>
       </c>
       <c r="B58">
-        <v>657881.4738385482</v>
+        <v>657881.4738385408</v>
       </c>
       <c r="C58">
-        <v>820.8198529952688</v>
+        <v>820.8198529952598</v>
       </c>
       <c r="D58">
-        <v>30214.34929085329</v>
+        <v>30214.34929085331</v>
       </c>
       <c r="E58">
-        <v>5675.962548985719</v>
+        <v>5675.96254898573</v>
       </c>
       <c r="F58">
-        <v>4896.243227248605</v>
+        <v>4896.243227248616</v>
       </c>
       <c r="G58">
-        <v>6.691077512073621</v>
+        <v>6.691077512073605</v>
       </c>
       <c r="H58">
-        <v>27.99005658806653</v>
+        <v>27.99005658806647</v>
       </c>
       <c r="I58">
-        <v>4.52219319790828E-09</v>
+        <v>4.522193197908255E-09</v>
       </c>
       <c r="J58">
-        <v>4.562978597902017E-09</v>
+        <v>4.562978597901998E-09</v>
       </c>
       <c r="K58">
-        <v>0.0001422421440579478</v>
+        <v>0.0001422421440579483</v>
       </c>
       <c r="L58">
-        <v>0.09734392308751372</v>
+        <v>0.09734392308751391</v>
       </c>
       <c r="M58">
-        <v>682.8828099437496</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.09734392308751391</v>
+      </c>
+      <c r="N58">
+        <v>682.8828099437512</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>110.630594217748</v>
+        <v>110.6305942177478</v>
       </c>
       <c r="B59">
-        <v>706170.6833764947</v>
+        <v>706170.6833764868</v>
       </c>
       <c r="C59">
-        <v>878.5182687969542</v>
+        <v>878.5182687969444</v>
       </c>
       <c r="D59">
-        <v>30021.9488384234</v>
+        <v>30021.94883842342</v>
       </c>
       <c r="E59">
-        <v>5625.674036379663</v>
+        <v>5625.674036379672</v>
       </c>
       <c r="F59">
-        <v>4845.37570361435</v>
+        <v>4845.375703614356</v>
       </c>
       <c r="G59">
-        <v>6.637805924801758</v>
+        <v>6.637805924801782</v>
       </c>
       <c r="H59">
-        <v>28.42401235920379</v>
+        <v>28.42401235920374</v>
       </c>
       <c r="I59">
-        <v>4.718134601426802E-09</v>
+        <v>4.718134601426779E-09</v>
       </c>
       <c r="J59">
-        <v>4.725745836385414E-09</v>
+        <v>4.725745836385394E-09</v>
       </c>
       <c r="K59">
-        <v>0.0001385188347185264</v>
+        <v>0.0001385188347185268</v>
       </c>
       <c r="L59">
-        <v>0.09581534309993506</v>
+        <v>0.09581534309993521</v>
       </c>
       <c r="M59">
-        <v>674.6066895796062</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.09581534309993521</v>
+      </c>
+      <c r="N59">
+        <v>674.6066895796067</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>111.7070053866004</v>
+        <v>111.7070053866002</v>
       </c>
       <c r="B60">
-        <v>756979.5857172407</v>
+        <v>756979.5857172309</v>
       </c>
       <c r="C60">
-        <v>939.3270444002688</v>
+        <v>939.3270444002566</v>
       </c>
       <c r="D60">
-        <v>29827.09463120442</v>
+        <v>29827.09463120445</v>
       </c>
       <c r="E60">
-        <v>5574.076741394811</v>
+        <v>5574.07674139482</v>
       </c>
       <c r="F60">
-        <v>4793.581300693793</v>
+        <v>4793.581300693802</v>
       </c>
       <c r="G60">
-        <v>6.584821417291201</v>
+        <v>6.584821417291211</v>
       </c>
       <c r="H60">
-        <v>28.88922498513416</v>
+        <v>28.88922498513412</v>
       </c>
       <c r="I60">
-        <v>4.927891739561855E-09</v>
+        <v>4.927891739561824E-09</v>
       </c>
       <c r="J60">
-        <v>4.892311067751824E-09</v>
+        <v>4.892311067751802E-09</v>
       </c>
       <c r="K60">
-        <v>0.0001349012403118638</v>
+        <v>0.0001349012403118643</v>
       </c>
       <c r="L60">
-        <v>0.09431458074178123</v>
+        <v>0.09431458074178144</v>
       </c>
       <c r="M60">
-        <v>666.2930534060379</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.09431458074178144</v>
+      </c>
+      <c r="N60">
+        <v>666.2930534060392</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>112.7834165554527</v>
+        <v>112.7834165554526</v>
       </c>
       <c r="B61">
-        <v>810382.889673915</v>
+        <v>810382.8896739105</v>
       </c>
       <c r="C61">
-        <v>1003.386336385899</v>
+        <v>1003.386336385894</v>
       </c>
       <c r="D61">
-        <v>29629.6345192117</v>
+        <v>29629.63451921173</v>
       </c>
       <c r="E61">
-        <v>5521.115213504389</v>
+        <v>5521.115213504396</v>
       </c>
       <c r="F61">
-        <v>4740.817709389203</v>
+        <v>4740.81770938921</v>
       </c>
       <c r="G61">
-        <v>6.532043366662026</v>
+        <v>6.532043366662023</v>
       </c>
       <c r="H61">
-        <v>29.38669974504553</v>
+        <v>29.38669974504542</v>
       </c>
       <c r="I61">
-        <v>5.152748259110918E-09</v>
+        <v>5.152748259110883E-09</v>
       </c>
       <c r="J61">
-        <v>5.062827377900457E-09</v>
+        <v>5.062827377900433E-09</v>
       </c>
       <c r="K61">
-        <v>0.000131383586087579</v>
+        <v>0.0001313835860875795</v>
       </c>
       <c r="L61">
-        <v>0.09283937092334849</v>
+        <v>0.09283937092334865</v>
       </c>
       <c r="M61">
-        <v>657.9377015206874</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.09283937092334865</v>
+      </c>
+      <c r="N61">
+        <v>657.9377015206886</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>113.8598277243051</v>
+        <v>113.859827724305</v>
       </c>
       <c r="B62">
-        <v>866455.7131783931</v>
+        <v>866455.7131783731</v>
       </c>
       <c r="C62">
-        <v>1070.845350990724</v>
+        <v>1070.845350990697</v>
       </c>
       <c r="D62">
-        <v>29429.41227928096</v>
+        <v>29429.412279281</v>
       </c>
       <c r="E62">
-        <v>5466.731441644936</v>
+        <v>5466.731441644944</v>
       </c>
       <c r="F62">
-        <v>4687.040828909261</v>
+        <v>4687.040828909265</v>
       </c>
       <c r="G62">
-        <v>6.479414276431481</v>
+        <v>6.479414276431458</v>
       </c>
       <c r="H62">
-        <v>29.91763024666564</v>
+        <v>29.91763024666551</v>
       </c>
       <c r="I62">
-        <v>5.394136659886066E-09</v>
+        <v>5.394136659886019E-09</v>
       </c>
       <c r="J62">
-        <v>5.237469604947546E-09</v>
+        <v>5.237469604947512E-09</v>
       </c>
       <c r="K62">
-        <v>0.0001279606384265028</v>
+        <v>0.0001279606384265035</v>
       </c>
       <c r="L62">
-        <v>0.09138691862935315</v>
+        <v>0.09138691862935344</v>
       </c>
       <c r="M62">
-        <v>649.5365653628544</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.09138691862935344</v>
+      </c>
+      <c r="N62">
+        <v>649.5365653628563</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>114.9362388931575</v>
+        <v>114.9362388931574</v>
       </c>
       <c r="B63">
-        <v>925273.6216566628</v>
+        <v>925273.6216566645</v>
       </c>
       <c r="C63">
-        <v>1141.863447012043</v>
+        <v>1141.863447012048</v>
       </c>
       <c r="D63">
-        <v>29226.26712335265</v>
+        <v>29226.26712335269</v>
       </c>
       <c r="E63">
-        <v>5410.864434655903</v>
+        <v>5410.864434655892</v>
       </c>
       <c r="F63">
-        <v>4632.204430110835</v>
+        <v>4632.20443011083</v>
       </c>
       <c r="G63">
-        <v>6.426897477100335</v>
+        <v>6.426897477100367</v>
       </c>
       <c r="H63">
-        <v>30.48341018598275</v>
+        <v>30.4834101859826</v>
       </c>
       <c r="I63">
-        <v>5.653659167184534E-09</v>
+        <v>5.653659167184471E-09</v>
       </c>
       <c r="J63">
-        <v>5.416435435353547E-09</v>
+        <v>5.416435435353516E-09</v>
       </c>
       <c r="K63">
-        <v>0.0001246276300185792</v>
+        <v>0.0001246276300185799</v>
       </c>
       <c r="L63">
-        <v>0.08995412806879698</v>
+        <v>0.08995412806879725</v>
       </c>
       <c r="M63">
-        <v>641.0857137348195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.08995412806879725</v>
+      </c>
+      <c r="N63">
+        <v>641.0857137348211</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>116.0126500620099</v>
+        <v>116.0126500620097</v>
       </c>
       <c r="B64">
-        <v>986912.6794749367</v>
+        <v>986912.6794749348</v>
       </c>
       <c r="C64">
         <v>1216.611398371741</v>
       </c>
       <c r="D64">
-        <v>29020.03319096041</v>
+        <v>29020.03319096043</v>
       </c>
       <c r="E64">
-        <v>5353.449768660211</v>
+        <v>5353.449768660213</v>
       </c>
       <c r="F64">
-        <v>4576.259791772225</v>
+        <v>4576.259791772226</v>
       </c>
       <c r="G64">
-        <v>6.374475238706829</v>
+        <v>6.374475238706855</v>
       </c>
       <c r="H64">
         <v>31.08564836004777</v>
       </c>
       <c r="I64">
-        <v>5.933112102716138E-09</v>
+        <v>5.933112102716116E-09</v>
       </c>
       <c r="J64">
-        <v>5.599946558978931E-09</v>
+        <v>5.599946558978907E-09</v>
       </c>
       <c r="K64">
-        <v>0.0001213801922331956</v>
+        <v>0.000121380192233196</v>
       </c>
       <c r="L64">
-        <v>0.08853778190500977</v>
+        <v>0.08853778190500995</v>
       </c>
       <c r="M64">
-        <v>632.581355106017</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.08853778190500995</v>
+      </c>
+      <c r="N64">
+        <v>632.5813551060173</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>117.0890612308623</v>
+        <v>117.0890612308621</v>
       </c>
       <c r="B65">
         <v>1051449.515802886</v>
       </c>
       <c r="C65">
-        <v>1295.27284063827</v>
+        <v>1295.272840638274</v>
       </c>
       <c r="D65">
-        <v>28810.53902221443</v>
+        <v>28810.53902221447</v>
       </c>
       <c r="E65">
-        <v>5294.419097249161</v>
+        <v>5294.419097249175</v>
       </c>
       <c r="F65">
-        <v>4519.155305628668</v>
+        <v>4519.155305628685</v>
       </c>
       <c r="G65">
-        <v>6.322147249317634</v>
+        <v>6.322147249317621</v>
       </c>
       <c r="H65">
-        <v>31.72618742928375</v>
+        <v>31.72618742928357</v>
       </c>
       <c r="I65">
-        <v>6.234514452450745E-09</v>
+        <v>6.234514452450676E-09</v>
       </c>
       <c r="J65">
-        <v>5.78824990196018E-09</v>
+        <v>5.788249901960147E-09</v>
       </c>
       <c r="K65">
-        <v>0.0001182142943447298</v>
+        <v>0.0001182142943447304</v>
       </c>
       <c r="L65">
-        <v>0.08713467610437946</v>
+        <v>0.08713467610437974</v>
       </c>
       <c r="M65">
-        <v>624.0198366122479</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.08713467610437974</v>
+      </c>
+      <c r="N65">
+        <v>624.0198366122499</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>118.1654723997147</v>
+        <v>118.1654723997145</v>
       </c>
       <c r="B66">
-        <v>1118961.406335154</v>
+        <v>1118961.406335143</v>
       </c>
       <c r="C66">
-        <v>1378.045929445664</v>
+        <v>1378.045929445651</v>
       </c>
       <c r="D66">
-        <v>28597.6070068236</v>
+        <v>28597.60700682363</v>
       </c>
       <c r="E66">
-        <v>5233.699620124294</v>
+        <v>5233.69962012429</v>
       </c>
       <c r="F66">
-        <v>4460.836045666917</v>
+        <v>4460.836045666912</v>
       </c>
       <c r="G66">
-        <v>6.269929419329909</v>
+        <v>6.269929419329913</v>
       </c>
       <c r="H66">
-        <v>32.40712707481647</v>
+        <v>32.40712707481639</v>
       </c>
       <c r="I66">
-        <v>6.560141494916203E-09</v>
+        <v>6.560141494916165E-09</v>
       </c>
       <c r="J66">
-        <v>5.981618957832247E-09</v>
+        <v>5.981618957832218E-09</v>
       </c>
       <c r="K66">
-        <v>0.0001151261893218774</v>
+        <v>0.0001151261893218778</v>
       </c>
       <c r="L66">
-        <v>0.08574171827498367</v>
+        <v>0.08574171827498381</v>
       </c>
       <c r="M66">
-        <v>615.3976400623438</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.08574171827498381</v>
+      </c>
+      <c r="N66">
+        <v>615.3976400623449</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>119.2418835685671</v>
+        <v>119.2418835685669</v>
       </c>
       <c r="B67">
-        <v>1189526.372390368</v>
+        <v>1189526.372390354</v>
       </c>
       <c r="C67">
-        <v>1465.145242870346</v>
+        <v>1465.145242870328</v>
       </c>
       <c r="D67">
-        <v>28381.05280368674</v>
+        <v>28381.05280368678</v>
       </c>
       <c r="E67">
-        <v>5171.213505635061</v>
+        <v>5171.213505635065</v>
       </c>
       <c r="F67">
-        <v>4401.243296795129</v>
+        <v>4401.243296795134</v>
       </c>
       <c r="G67">
-        <v>6.217852976785093</v>
+        <v>6.217852976785092</v>
       </c>
       <c r="H67">
-        <v>33.13085238419713</v>
+        <v>33.13085238419701</v>
       </c>
       <c r="I67">
-        <v>6.912564564101401E-09</v>
+        <v>6.912564564101344E-09</v>
       </c>
       <c r="J67">
-        <v>6.180355239377517E-09</v>
+        <v>6.180355239377484E-09</v>
       </c>
       <c r="K67">
-        <v>0.0001121123659187003</v>
+        <v>0.0001121123659187008</v>
       </c>
       <c r="L67">
-        <v>0.08435599777546621</v>
+        <v>0.08435599777546643</v>
       </c>
       <c r="M67">
-        <v>606.7113751739116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.08435599777546643</v>
+      </c>
+      <c r="N67">
+        <v>606.7113751739131</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>120.3182947374194</v>
+        <v>120.3182947374193</v>
       </c>
       <c r="B68">
-        <v>1263223.298959329</v>
+        <v>1263223.298959323</v>
       </c>
       <c r="C68">
-        <v>1556.803964450711</v>
+        <v>1556.803964450705</v>
       </c>
       <c r="D68">
-        <v>28160.68472422375</v>
+        <v>28160.68472422379</v>
       </c>
       <c r="E68">
-        <v>5106.877262462007</v>
+        <v>5106.877262461998</v>
       </c>
       <c r="F68">
-        <v>4340.314037589194</v>
+        <v>4340.314037589189</v>
       </c>
       <c r="G68">
-        <v>6.165963823740176</v>
+        <v>6.165963823740173</v>
       </c>
       <c r="H68">
-        <v>33.90006853754802</v>
+        <v>33.90006853754778</v>
       </c>
       <c r="I68">
-        <v>7.294698291678026E-09</v>
+        <v>7.294698291677938E-09</v>
       </c>
       <c r="J68">
-        <v>6.384789876430444E-09</v>
+        <v>6.384789876430407E-09</v>
       </c>
       <c r="K68">
-        <v>0.0001091695068220523</v>
+        <v>0.0001091695068220528</v>
       </c>
       <c r="L68">
-        <v>0.08297483514778245</v>
+        <v>0.08297483514778274</v>
       </c>
       <c r="M68">
-        <v>597.9577701768383</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.08297483514778274</v>
+      </c>
+      <c r="N68">
+        <v>597.9577701768402</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>121.3947059062718</v>
+        <v>121.3947059062716</v>
       </c>
       <c r="B69">
-        <v>1340132.073283419</v>
+        <v>1340132.073283392</v>
       </c>
       <c r="C69">
-        <v>1653.276388643091</v>
+        <v>1653.276388643051</v>
       </c>
       <c r="D69">
-        <v>27936.30307080314</v>
+        <v>27936.30307080319</v>
       </c>
       <c r="E69">
-        <v>5040.601055576233</v>
+        <v>5040.601055576244</v>
       </c>
       <c r="F69">
-        <v>4277.98037138755</v>
+        <v>4277.98037138756</v>
       </c>
       <c r="G69">
-        <v>6.114322128086813</v>
+        <v>6.114322128086843</v>
       </c>
       <c r="H69">
-        <v>34.71784317160373</v>
+        <v>34.71784317160351</v>
       </c>
       <c r="I69">
-        <v>7.709857023245191E-09</v>
+        <v>7.70985702324508E-09</v>
       </c>
       <c r="J69">
-        <v>6.595285388534045E-09</v>
+        <v>6.595285388533998E-09</v>
       </c>
       <c r="K69">
-        <v>0.0001062944526167491</v>
+        <v>0.0001062944526167496</v>
       </c>
       <c r="L69">
-        <v>0.08159581715091214</v>
+        <v>0.08159581715091244</v>
       </c>
       <c r="M69">
-        <v>589.1336598483339</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.08159581715091244</v>
+      </c>
+      <c r="N69">
+        <v>589.133659848336</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>122.4711170751242</v>
+        <v>122.471117075124</v>
       </c>
       <c r="B70">
-        <v>1420333.745487097</v>
+        <v>1420333.745487096</v>
       </c>
       <c r="C70">
-        <v>1754.840796020208</v>
+        <v>1754.840796020212</v>
       </c>
       <c r="D70">
-        <v>27707.69941921601</v>
+        <v>27707.69941921603</v>
       </c>
       <c r="E70">
-        <v>4972.287961634805</v>
+        <v>4972.287961634812</v>
       </c>
       <c r="F70">
-        <v>4214.168899608934</v>
+        <v>4214.168899608942</v>
       </c>
       <c r="G70">
-        <v>6.063002129117361</v>
+        <v>6.063002129117397</v>
       </c>
       <c r="H70">
-        <v>35.58765819267787</v>
+        <v>35.58765819267774</v>
       </c>
       <c r="I70">
-        <v>8.161822559322429E-09</v>
+        <v>8.161822559322348E-09</v>
       </c>
       <c r="J70">
-        <v>6.81223766621713E-09</v>
+        <v>6.812237666217096E-09</v>
       </c>
       <c r="K70">
-        <v>0.0001034841713284505</v>
+        <v>0.0001034841713284508</v>
       </c>
       <c r="L70">
-        <v>0.08021682222885752</v>
+        <v>0.08021682222885772</v>
       </c>
       <c r="M70">
-        <v>580.2359709760093</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.08021682222885772</v>
+      </c>
+      <c r="N70">
+        <v>580.2359709760108</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>123.5475282439766</v>
+        <v>123.5475282439764</v>
       </c>
       <c r="B71">
-        <v>1503910.712631994</v>
+        <v>1503910.712631973</v>
       </c>
       <c r="C71">
-        <v>1861.802751247176</v>
+        <v>1861.802751247146</v>
       </c>
       <c r="D71">
-        <v>27474.65583096943</v>
+        <v>27474.65583096945</v>
       </c>
       <c r="E71">
-        <v>4901.833159267158</v>
+        <v>4901.833159267189</v>
       </c>
       <c r="F71">
-        <v>4148.800030874284</v>
+        <v>4148.800030874309</v>
       </c>
       <c r="G71">
-        <v>6.012092138662344</v>
+        <v>6.012092138662359</v>
       </c>
       <c r="H71">
-        <v>36.51347332002999</v>
+        <v>36.51347332003001</v>
       </c>
       <c r="I71">
-        <v>8.654925970470052E-09</v>
+        <v>8.654925970470028E-09</v>
       </c>
       <c r="J71">
-        <v>7.036078201114585E-09</v>
+        <v>7.036078201114561E-09</v>
       </c>
       <c r="K71">
-        <v>0.0001007357332957551</v>
+        <v>0.0001007357332957554</v>
       </c>
       <c r="L71">
-        <v>0.07883603985492807</v>
+        <v>0.07883603985492821</v>
       </c>
       <c r="M71">
-        <v>571.2617051859111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.07883603985492821</v>
+      </c>
+      <c r="N71">
+        <v>571.2617051859115</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>124.623939412829</v>
+        <v>124.6239394128288</v>
       </c>
       <c r="B72">
-        <v>1590946.927251601</v>
+        <v>1590946.927251582</v>
       </c>
       <c r="C72">
-        <v>1974.498882439392</v>
+        <v>1974.498882439367</v>
       </c>
       <c r="D72">
-        <v>27236.94397698832</v>
+        <v>27236.94397698835</v>
       </c>
       <c r="E72">
-        <v>4829.123050456677</v>
+        <v>4829.12305045669</v>
       </c>
       <c r="F72">
-        <v>4081.787219449961</v>
+        <v>4081.787219449972</v>
       </c>
       <c r="G72">
-        <v>5.961694722820085</v>
+        <v>5.961694722820072</v>
       </c>
       <c r="H72">
-        <v>37.49980430754234</v>
+        <v>37.49980430754219</v>
       </c>
       <c r="I72">
-        <v>9.194147027999026E-09</v>
+        <v>9.194147027998957E-09</v>
       </c>
       <c r="J72">
-        <v>7.267276613688573E-09</v>
+        <v>7.267276613688539E-09</v>
       </c>
       <c r="K72">
-        <v>9.80462911077294E-05</v>
+        <v>9.804629110772976E-05</v>
       </c>
       <c r="L72">
-        <v>0.0774519859625252</v>
+        <v>0.07745198596252537</v>
       </c>
       <c r="M72">
-        <v>562.2079190205687</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.07745198596252537</v>
+      </c>
+      <c r="N72">
+        <v>562.2079190205701</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>125.7003505816814</v>
+        <v>125.7003505816812</v>
       </c>
       <c r="B73">
-        <v>1681528.130897035</v>
+        <v>1681528.130897019</v>
       </c>
       <c r="C73">
-        <v>2093.301205263929</v>
+        <v>2093.301205263907</v>
       </c>
       <c r="D73">
-        <v>26994.32414881723</v>
+        <v>26994.32414881727</v>
       </c>
       <c r="E73">
-        <v>4754.034310701058</v>
+        <v>4754.034310701071</v>
       </c>
       <c r="F73">
-        <v>4013.036126889567</v>
+        <v>4013.036126889577</v>
       </c>
       <c r="G73">
-        <v>5.911927052235793</v>
+        <v>5.911927052235824</v>
       </c>
       <c r="H73">
-        <v>38.55181966774556</v>
+        <v>38.55181966774539</v>
       </c>
       <c r="I73">
-        <v>9.785235848371863E-09</v>
+        <v>9.785235848371779E-09</v>
       </c>
       <c r="J73">
-        <v>7.50634353859379E-09</v>
+        <v>7.506343538593744E-09</v>
       </c>
       <c r="K73">
-        <v>9.541306432045759E-05</v>
+        <v>9.541306432045805E-05</v>
       </c>
       <c r="L73">
-        <v>0.07606351563853493</v>
+        <v>0.07606351563853513</v>
       </c>
       <c r="M73">
-        <v>553.0717011080934</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.07606351563853513</v>
+      </c>
+      <c r="N73">
+        <v>553.0717011080942</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>126.7767617505338</v>
+        <v>126.7767617505336</v>
       </c>
       <c r="B74">
-        <v>1775742.11237068</v>
+        <v>1775742.112370653</v>
       </c>
       <c r="C74">
-        <v>2218.62205797691</v>
+        <v>2218.622057976871</v>
       </c>
       <c r="D74">
-        <v>26746.5441261965</v>
+        <v>26746.54412619654</v>
       </c>
       <c r="E74">
-        <v>4676.432868254971</v>
+        <v>4676.432868254995</v>
       </c>
       <c r="F74">
-        <v>3942.443701837693</v>
+        <v>3942.443701837714</v>
       </c>
       <c r="G74">
-        <v>5.862921411698138</v>
+        <v>5.862921411698147</v>
       </c>
       <c r="H74">
-        <v>39.67546088274233</v>
+        <v>39.6754608827421</v>
       </c>
       <c r="I74">
-        <v>1.043486277118154E-08</v>
+        <v>1.043486277118144E-08</v>
       </c>
       <c r="J74">
-        <v>7.753833942663051E-09</v>
+        <v>7.753833942663008E-09</v>
       </c>
       <c r="K74">
-        <v>9.283332863486377E-05</v>
+        <v>9.283332863486414E-05</v>
       </c>
       <c r="L74">
-        <v>0.07466983342043884</v>
+        <v>0.07466983342043904</v>
       </c>
       <c r="M74">
-        <v>543.8501462262619</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.07466983342043904</v>
+      </c>
+      <c r="N74">
+        <v>543.850146226263</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>127.8531729193862</v>
+        <v>127.853172919386</v>
       </c>
       <c r="B75">
-        <v>1873678.988998061</v>
+        <v>1873678.988998045</v>
       </c>
       <c r="C75">
-        <v>2350.919712690775</v>
+        <v>2350.919712690755</v>
       </c>
       <c r="D75">
-        <v>26493.3378604028</v>
+        <v>26493.33786040286</v>
       </c>
       <c r="E75">
-        <v>4596.172817114641</v>
+        <v>4596.172817114662</v>
       </c>
       <c r="F75">
-        <v>3869.897175229988</v>
+        <v>3869.89717523001</v>
       </c>
       <c r="G75">
-        <v>5.814825862611133</v>
+        <v>5.814825862611132</v>
       </c>
       <c r="H75">
-        <v>40.87759263654244</v>
+        <v>40.8775926365421</v>
       </c>
       <c r="I75">
-        <v>1.115080442131439E-08</v>
+        <v>1.11508044213142E-08</v>
       </c>
       <c r="J75">
-        <v>8.010350970294015E-09</v>
+        <v>8.010350970293959E-09</v>
       </c>
       <c r="K75">
-        <v>9.030440917571143E-05</v>
+        <v>9.030440917571197E-05</v>
       </c>
       <c r="L75">
-        <v>0.07327050088797069</v>
+        <v>0.073270500887971</v>
       </c>
       <c r="M75">
-        <v>534.5403260338277</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.073270500887971</v>
+      </c>
+      <c r="N75">
+        <v>534.5403260338303</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>128.9295840882386</v>
+        <v>128.9295840882384</v>
       </c>
       <c r="B76">
-        <v>1975431.507286642</v>
+        <v>1975431.507286601</v>
       </c>
       <c r="C76">
-        <v>2490.704720706563</v>
+        <v>2490.704720706495</v>
       </c>
       <c r="D76">
-        <v>26234.42392025413</v>
+        <v>26234.42392025419</v>
       </c>
       <c r="E76">
-        <v>4513.095275323803</v>
+        <v>4513.095275323824</v>
       </c>
       <c r="F76">
-        <v>3795.272972244242</v>
+        <v>3795.272972244259</v>
       </c>
       <c r="G76">
-        <v>5.767805054914667</v>
+        <v>5.767805054914646</v>
       </c>
       <c r="H76">
-        <v>42.16619169277387</v>
+        <v>42.16619169277349</v>
       </c>
       <c r="I76">
-        <v>1.194217655345258E-08</v>
+        <v>1.194217655345241E-08</v>
       </c>
       <c r="J76">
-        <v>8.276550437365756E-09</v>
+        <v>8.276550437365701E-09</v>
       </c>
       <c r="K76">
-        <v>8.782367745515922E-05</v>
+        <v>8.782367745515978E-05</v>
       </c>
       <c r="L76">
-        <v>0.07186544075651913</v>
+        <v>0.07186544075651945</v>
       </c>
       <c r="M76">
-        <v>525.1392562104299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.07186544075651945</v>
+      </c>
+      <c r="N76">
+        <v>525.139256210432</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>130.0059952570909</v>
+        <v>130.0059952570907</v>
       </c>
       <c r="B77">
-        <v>2081095.356345414</v>
+        <v>2081095.35634535</v>
       </c>
       <c r="C77">
-        <v>2638.547031359882</v>
+        <v>2638.547031359768</v>
       </c>
       <c r="D77">
-        <v>25969.50363115082</v>
+        <v>25969.50363115084</v>
       </c>
       <c r="E77">
-        <v>4427.027210814725</v>
+        <v>4427.027210814758</v>
       </c>
       <c r="F77">
-        <v>3718.435549291848</v>
+        <v>3718.435549291869</v>
       </c>
       <c r="G77">
-        <v>5.722041188522613</v>
+        <v>5.722041188522619</v>
       </c>
       <c r="H77">
-        <v>43.55058588808913</v>
+        <v>43.55058588808902</v>
       </c>
       <c r="I77">
-        <v>1.28197279459434E-08</v>
+        <v>1.281972794594333E-08</v>
       </c>
       <c r="J77">
-        <v>8.553146130030497E-09</v>
+        <v>8.553146130030469E-09</v>
       </c>
       <c r="K77">
-        <v>8.538855152913855E-05</v>
+        <v>8.538855152913873E-05</v>
       </c>
       <c r="L77">
-        <v>0.07045493634630753</v>
+        <v>0.07045493634630765</v>
       </c>
       <c r="M77">
-        <v>515.6438597079283</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.07045493634630765</v>
+      </c>
+      <c r="N77">
+        <v>515.6438597079289</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>131.0824064259433</v>
+        <v>131.0824064259431</v>
       </c>
       <c r="B78">
-        <v>2190769.483104134</v>
+        <v>2190769.483104101</v>
       </c>
       <c r="C78">
-        <v>2795.083888045569</v>
+        <v>2795.083888045515</v>
       </c>
       <c r="D78">
-        <v>25698.25881550907</v>
+        <v>25698.25881550912</v>
       </c>
       <c r="E78">
-        <v>4337.780272830523</v>
+        <v>4337.780272830541</v>
       </c>
       <c r="F78">
-        <v>3639.236175403351</v>
+        <v>3639.236175403364</v>
       </c>
       <c r="G78">
-        <v>5.677735128793548</v>
+        <v>5.677735128793582</v>
       </c>
       <c r="H78">
-        <v>45.04175863494899</v>
+        <v>45.04175863494871</v>
       </c>
       <c r="I78">
-        <v>1.379621475328934E-08</v>
+        <v>1.379621475328917E-08</v>
       </c>
       <c r="J78">
-        <v>8.84091611207728E-09</v>
+        <v>8.840916112077228E-09</v>
       </c>
       <c r="K78">
-        <v>8.299649875557676E-05</v>
+        <v>8.299649875557717E-05</v>
       </c>
       <c r="L78">
-        <v>0.06903962510588872</v>
+        <v>0.06903962510588894</v>
       </c>
       <c r="M78">
-        <v>506.0509257538467</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.06903962510588894</v>
+      </c>
+      <c r="N78">
+        <v>506.0509257538479</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>132.1588175947957</v>
+        <v>132.1588175947955</v>
       </c>
       <c r="B79">
-        <v>2304556.392129298</v>
+        <v>2304556.392129277</v>
       </c>
       <c r="C79">
-        <v>2961.028442538811</v>
+        <v>2961.028442538782</v>
       </c>
       <c r="D79">
-        <v>25420.34901333805</v>
+        <v>25420.34901333811</v>
       </c>
       <c r="E79">
-        <v>4245.149689843177</v>
+        <v>4245.149689843191</v>
       </c>
       <c r="F79">
-        <v>3557.511694299898</v>
+        <v>3557.511694299913</v>
       </c>
       <c r="G79">
-        <v>5.635107686571693</v>
+        <v>5.635107686571716</v>
       </c>
       <c r="H79">
-        <v>46.65273980734976</v>
+        <v>46.65273980734936</v>
       </c>
       <c r="I79">
-        <v>1.488688202351903E-08</v>
+        <v>1.488688202351879E-08</v>
       </c>
       <c r="J79">
-        <v>9.140710308726017E-09</v>
+        <v>9.140710308725957E-09</v>
       </c>
       <c r="K79">
-        <v>8.064504043277255E-05</v>
+        <v>8.064504043277303E-05</v>
       </c>
       <c r="L79">
-        <v>0.06762048479976078</v>
+        <v>0.06762048479976107</v>
       </c>
       <c r="M79">
-        <v>496.3570641336612</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.06762048479976107</v>
+      </c>
+      <c r="N79">
+        <v>496.3570641336628</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>133.2352287636481</v>
+        <v>133.2352287636479</v>
       </c>
       <c r="B80">
-        <v>2422562.40399778</v>
+        <v>2422562.403997799</v>
       </c>
       <c r="C80">
-        <v>3137.178926585955</v>
+        <v>3137.178926586012</v>
       </c>
       <c r="D80">
-        <v>25135.40802141853</v>
+        <v>25135.40802141861</v>
       </c>
       <c r="E80">
-        <v>4148.913326742689</v>
+        <v>4148.913326742688</v>
       </c>
       <c r="F80">
-        <v>3473.083328348547</v>
+        <v>3473.083328348554</v>
       </c>
       <c r="G80">
-        <v>5.594401081913892</v>
+        <v>5.594401081913911</v>
       </c>
       <c r="H80">
-        <v>48.3991116505369</v>
+        <v>48.39911165053634</v>
       </c>
       <c r="I80">
-        <v>1.61100895825646E-08</v>
+        <v>1.611008958256423E-08</v>
       </c>
       <c r="J80">
-        <v>9.453459722490883E-09</v>
+        <v>9.453459722490807E-09</v>
       </c>
       <c r="K80">
-        <v>7.833175742451964E-05</v>
+        <v>7.833175742452026E-05</v>
       </c>
       <c r="L80">
-        <v>0.06619881101589477</v>
+        <v>0.06619881101589517</v>
       </c>
       <c r="M80">
-        <v>486.5586540660267</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.06619881101589517</v>
+      </c>
+      <c r="N80">
+        <v>486.5586540660294</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>134.3116399325005</v>
+        <v>134.3116399325002</v>
       </c>
       <c r="B81">
-        <v>2544897.833895842</v>
+        <v>2544897.833895835</v>
       </c>
       <c r="C81">
-        <v>3324.428061563932</v>
+        <v>3324.428061563935</v>
       </c>
       <c r="D81">
-        <v>24843.03953391355</v>
+        <v>24843.03953391359</v>
       </c>
       <c r="E81">
-        <v>4048.831036452676</v>
+        <v>4048.83103645268</v>
       </c>
       <c r="F81">
-        <v>3385.755620639981</v>
+        <v>3385.755620639982</v>
       </c>
       <c r="G81">
-        <v>5.55588062324516</v>
+        <v>5.555880623245201</v>
       </c>
       <c r="H81">
-        <v>50.29966954656024</v>
+        <v>50.29966954656026</v>
       </c>
       <c r="I81">
-        <v>1.74881348112308E-08</v>
+        <v>1.74881348112307E-08</v>
       </c>
       <c r="J81">
-        <v>9.780187758243396E-09</v>
+        <v>9.780187758243343E-09</v>
       </c>
       <c r="K81">
-        <v>7.605429565306799E-05</v>
+        <v>7.605429565306834E-05</v>
       </c>
       <c r="L81">
-        <v>0.06477618479242395</v>
+        <v>0.06477618479242415</v>
       </c>
       <c r="M81">
-        <v>476.651786596753</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.06477618479242415</v>
+      </c>
+      <c r="N81">
+        <v>476.6517865967535</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>135.3880511013529</v>
+        <v>135.3880511013526</v>
       </c>
       <c r="B82">
-        <v>2671677.035393146</v>
+        <v>2671677.035393152</v>
       </c>
       <c r="C82">
-        <v>3523.772154398156</v>
+        <v>3523.772154398192</v>
       </c>
       <c r="D82">
-        <v>24542.81158917393</v>
+        <v>24542.811589174</v>
       </c>
       <c r="E82">
-        <v>3944.644493738424</v>
+        <v>3944.644493738433</v>
       </c>
       <c r="F82">
-        <v>3295.315657959712</v>
+        <v>3295.315657959728</v>
       </c>
       <c r="G82">
-        <v>5.519836652657611</v>
+        <v>5.519836652657662</v>
       </c>
       <c r="H82">
-        <v>52.3772938814465</v>
+        <v>52.37729388144568</v>
       </c>
       <c r="I82">
-        <v>1.904834758218427E-08</v>
+        <v>1.904834758218374E-08</v>
       </c>
       <c r="J82">
-        <v>1.012202430507841E-08</v>
+        <v>1.012202430507832E-08</v>
       </c>
       <c r="K82">
-        <v>7.381037004383348E-05</v>
+        <v>7.381037004383405E-05</v>
       </c>
       <c r="L82">
-        <v>0.0633544293766455</v>
+        <v>0.06335442937664586</v>
       </c>
       <c r="M82">
-        <v>466.6321987511848</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.06335442937664586</v>
+      </c>
+      <c r="N82">
+        <v>466.6321987511872</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>136.4644622702052</v>
+        <v>136.464462270205</v>
       </c>
       <c r="B83">
-        <v>2803018.232305739</v>
+        <v>2803018.232305767</v>
       </c>
       <c r="C83">
-        <v>3736.319006074201</v>
+        <v>3736.31900607429</v>
       </c>
       <c r="D83">
-        <v>24234.24941603229</v>
+        <v>24234.24941603239</v>
       </c>
       <c r="E83">
-        <v>3836.077756904457</v>
+        <v>3836.077756904437</v>
       </c>
       <c r="F83">
-        <v>3201.532774041476</v>
+        <v>3201.532774041467</v>
       </c>
       <c r="G83">
-        <v>5.486586836976467</v>
+        <v>5.486586836976458</v>
       </c>
       <c r="H83">
-        <v>54.66011380884051</v>
+        <v>54.66011380883968</v>
       </c>
       <c r="I83">
-        <v>2.082456699384146E-08</v>
+        <v>2.08245669938408E-08</v>
       </c>
       <c r="J83">
-        <v>1.048022346552131E-08</v>
+        <v>1.048022346552121E-08</v>
       </c>
       <c r="K83">
-        <v>7.159776511138518E-05</v>
+        <v>7.159776511138591E-05</v>
       </c>
       <c r="L83">
-        <v>0.06193555537274135</v>
+        <v>0.06193555537274181</v>
       </c>
       <c r="M83">
-        <v>456.4951965114857</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.06193555537274181</v>
+      </c>
+      <c r="N83">
+        <v>456.4951965114896</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>137.5408734390576</v>
+        <v>137.5408734390574</v>
       </c>
       <c r="B84">
-        <v>2939043.033797109</v>
+        <v>2939043.03379708</v>
       </c>
       <c r="C84">
-        <v>3963.293350434247</v>
+        <v>3963.293350434196</v>
       </c>
       <c r="D84">
-        <v>23916.82611091681</v>
+        <v>23916.82611091689</v>
       </c>
       <c r="E84">
-        <v>3722.838851500853</v>
+        <v>3722.838851500875</v>
       </c>
       <c r="F84">
-        <v>3104.15899103664</v>
+        <v>3104.158991036661</v>
       </c>
       <c r="G84">
-        <v>5.45647892868935</v>
+        <v>5.456478928689338</v>
       </c>
       <c r="H84">
-        <v>57.18308120754842</v>
+        <v>57.18308120754745</v>
       </c>
       <c r="I84">
-        <v>2.285916253310463E-08</v>
+        <v>2.285916253310391E-08</v>
       </c>
       <c r="J84">
-        <v>1.085618617475475E-08</v>
+        <v>1.085618617475466E-08</v>
       </c>
       <c r="K84">
-        <v>6.94143298470832E-05</v>
+        <v>6.941432984708377E-05</v>
       </c>
       <c r="L84">
-        <v>0.06052169374789901</v>
+        <v>0.06052169374789942</v>
       </c>
       <c r="M84">
-        <v>446.2355617393033</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.06052169374789942</v>
+      </c>
+      <c r="N84">
+        <v>446.2355617393068</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>138.61728460791</v>
+        <v>138.6172846079098</v>
       </c>
       <c r="B85">
-        <v>3079875.495292487</v>
+        <v>3079875.495292431</v>
       </c>
       <c r="C85">
-        <v>4206.038093867308</v>
+        <v>4206.038093867181</v>
       </c>
       <c r="D85">
-        <v>23589.95033787662</v>
+        <v>23589.95033787664</v>
       </c>
       <c r="E85">
-        <v>3604.62267528431</v>
+        <v>3604.622675284354</v>
       </c>
       <c r="F85">
-        <v>3002.930495457861</v>
+        <v>3002.93049545789</v>
       </c>
       <c r="G85">
-        <v>5.42989418971481</v>
+        <v>5.429894189714785</v>
       </c>
       <c r="H85">
-        <v>59.99013175251305</v>
+        <v>59.99013175251324</v>
       </c>
       <c r="I85">
-        <v>2.520584584865822E-08</v>
+        <v>2.520584584865823E-08</v>
       </c>
       <c r="J85">
-        <v>1.125148947219118E-08</v>
+        <v>1.125148947219114E-08</v>
       </c>
       <c r="K85">
-        <v>6.725796384899488E-05</v>
+        <v>6.725796384899505E-05</v>
       </c>
       <c r="L85">
-        <v>0.05911501626869461</v>
+        <v>0.05911501626869469</v>
       </c>
       <c r="M85">
-        <v>435.8474350275009</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.05911501626869469</v>
+      </c>
+      <c r="N85">
+        <v>435.8474350275014</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>139.6936957767624</v>
+        <v>139.6936957767622</v>
       </c>
       <c r="B86">
-        <v>3225640.554088832</v>
+        <v>3225640.554088865</v>
       </c>
       <c r="C86">
-        <v>4466.009287330307</v>
+        <v>4466.009287330438</v>
       </c>
       <c r="D86">
-        <v>23252.94988486968</v>
+        <v>23252.94988486982</v>
       </c>
       <c r="E86">
         <v>3481.115419222351</v>
       </c>
       <c r="F86">
-        <v>2897.570415130718</v>
+        <v>2897.570415130734</v>
       </c>
       <c r="G86">
-        <v>5.407251778190227</v>
+        <v>5.407251778190226</v>
       </c>
       <c r="H86">
-        <v>63.13720396616888</v>
+        <v>63.13720396616735</v>
       </c>
       <c r="I86">
-        <v>2.793365431851235E-08</v>
+        <v>2.793365431851104E-08</v>
       </c>
       <c r="J86">
-        <v>1.1667924968729E-08</v>
+        <v>1.166792496872883E-08</v>
       </c>
       <c r="K86">
-        <v>6.51265906405876E-05</v>
+        <v>6.512659064058847E-05</v>
       </c>
       <c r="L86">
-        <v>0.05771764282374747</v>
+        <v>0.05771764282374803</v>
       </c>
       <c r="M86">
-        <v>425.324161543445</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.05771764282374803</v>
+      </c>
+      <c r="N86">
+        <v>425.3241615434499</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>140.7701069456148</v>
+        <v>140.7701069456145</v>
       </c>
       <c r="B87">
-        <v>3376461.642446205</v>
+        <v>3376461.642446149</v>
       </c>
       <c r="C87">
-        <v>4744.762856756146</v>
+        <v>4744.762856756022</v>
       </c>
       <c r="D87">
-        <v>22905.04936439979</v>
+        <v>22905.04936439985</v>
       </c>
       <c r="E87">
-        <v>3352.000370131501</v>
+        <v>3352.000370131549</v>
       </c>
       <c r="F87">
-        <v>2787.792976633506</v>
+        <v>2787.792976633544</v>
       </c>
       <c r="G87">
-        <v>5.389014565715965</v>
+        <v>5.389014565715972</v>
       </c>
       <c r="H87">
-        <v>66.69654182049759</v>
+        <v>66.69654182049709</v>
       </c>
       <c r="I87">
-        <v>3.11327117691539E-08</v>
+        <v>3.113271176915345E-08</v>
       </c>
       <c r="J87">
-        <v>1.210755024863481E-08</v>
+        <v>1.210755024863473E-08</v>
       </c>
       <c r="K87">
-        <v>6.301811272959059E-05</v>
+        <v>6.301811272959088E-05</v>
       </c>
       <c r="L87">
-        <v>0.0563315346158025</v>
+        <v>0.05633153461580274</v>
       </c>
       <c r="M87">
-        <v>414.6580794109099</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.05633153461580274</v>
+      </c>
+      <c r="N87">
+        <v>414.6580794109112</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>141.8465181144672</v>
+        <v>141.8465181144669</v>
       </c>
       <c r="B88">
-        <v>3532457.27886078</v>
+        <v>3532457.278860745</v>
       </c>
       <c r="C88">
-        <v>5043.932250918822</v>
+        <v>5043.932250918752</v>
       </c>
       <c r="D88">
-        <v>22545.33950681278</v>
+        <v>22545.33950681287</v>
       </c>
       <c r="E88">
-        <v>3216.964231776071</v>
+        <v>3216.964231776096</v>
       </c>
       <c r="F88">
-        <v>2673.308633026283</v>
+        <v>2673.308633026304</v>
       </c>
       <c r="G88">
-        <v>5.375697113778031</v>
+        <v>5.375697113778038</v>
       </c>
       <c r="H88">
-        <v>70.76296892272019</v>
+        <v>70.76296892271895</v>
       </c>
       <c r="I88">
-        <v>3.492275542246419E-08</v>
+        <v>3.492275542246305E-08</v>
       </c>
       <c r="J88">
-        <v>1.257275880993782E-08</v>
+        <v>1.257275880993771E-08</v>
       </c>
       <c r="K88">
-        <v>6.093034096591938E-05</v>
+        <v>6.093034096591993E-05</v>
       </c>
       <c r="L88">
-        <v>0.05495837119079826</v>
+        <v>0.05495837119079861</v>
       </c>
       <c r="M88">
-        <v>403.8402189878723</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.05495837119079861</v>
+      </c>
+      <c r="N88">
+        <v>403.8402189878752</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>142.9229292833195</v>
+        <v>142.9229292833193</v>
       </c>
       <c r="B89">
-        <v>3693736.485792513</v>
+        <v>3693736.485792479</v>
       </c>
       <c r="C89">
-        <v>5365.199280283879</v>
+        <v>5365.199280283806</v>
       </c>
       <c r="D89">
-        <v>22172.73418049301</v>
+        <v>22172.73418049309</v>
       </c>
       <c r="E89">
-        <v>3075.701753342859</v>
+        <v>3075.701753342893</v>
       </c>
       <c r="F89">
-        <v>2553.828760036122</v>
+        <v>2553.828760036151</v>
       </c>
       <c r="G89">
-        <v>5.367876947209823</v>
+        <v>5.367876947209841</v>
       </c>
       <c r="H89">
-        <v>75.46328263074642</v>
+        <v>75.46328263074572</v>
       </c>
       <c r="I89">
-        <v>3.946609767761835E-08</v>
+        <v>3.946609767761749E-08</v>
       </c>
       <c r="J89">
-        <v>1.306637711673971E-08</v>
+        <v>1.306637711673961E-08</v>
       </c>
       <c r="K89">
-        <v>5.886088784107682E-05</v>
+        <v>5.886088784107722E-05</v>
       </c>
       <c r="L89">
-        <v>0.05359940744096074</v>
+        <v>0.05359940744096101</v>
       </c>
       <c r="M89">
-        <v>392.8598650390612</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.05359940744096101</v>
+      </c>
+      <c r="N89">
+        <v>392.8598650390632</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>143.9993404521719</v>
+        <v>143.9993404521717</v>
       </c>
       <c r="B90">
-        <v>3860393.012808348</v>
+        <v>3860393.012808343</v>
       </c>
       <c r="C90">
-        <v>5710.266694662751</v>
+        <v>5710.266694662789</v>
       </c>
       <c r="D90">
-        <v>21785.90917407471</v>
+        <v>21785.9091740748</v>
       </c>
       <c r="E90">
-        <v>2927.914292588752</v>
+        <v>2927.914292588754</v>
       </c>
       <c r="F90">
-        <v>2429.066816850339</v>
+        <v>2429.066816850344</v>
       </c>
       <c r="G90">
-        <v>5.36621090672487</v>
+        <v>5.366210906724866</v>
       </c>
       <c r="H90">
-        <v>80.97075454552758</v>
+        <v>80.97075454552618</v>
       </c>
       <c r="I90">
-        <v>4.498794184194435E-08</v>
+        <v>4.498794184194292E-08</v>
       </c>
       <c r="J90">
-        <v>1.359180217909E-08</v>
+        <v>1.359180217908988E-08</v>
       </c>
       <c r="K90">
-        <v>5.680700995640458E-05</v>
+        <v>5.680700995640506E-05</v>
       </c>
       <c r="L90">
-        <v>0.05225530363169125</v>
+        <v>0.05225530363169158</v>
       </c>
       <c r="M90">
-        <v>381.7039100964623</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.05225530363169158</v>
+      </c>
+      <c r="N90">
+        <v>381.7039100964651</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>145.0757516210243</v>
+        <v>145.0757516210241</v>
       </c>
       <c r="B91">
-        <v>4032498.583446448</v>
+        <v>4032498.583446438</v>
       </c>
       <c r="C91">
-        <v>6080.851449221194</v>
+        <v>6080.85144922123</v>
       </c>
       <c r="D91">
-        <v>21383.21330434349</v>
+        <v>21383.21330434361</v>
       </c>
       <c r="E91">
-        <v>2773.294935617038</v>
+        <v>2773.294935617049</v>
       </c>
       <c r="F91">
-        <v>2298.730346823848</v>
+        <v>2298.730346823862</v>
       </c>
       <c r="G91">
-        <v>5.371459396837249</v>
+        <v>5.371459396837232</v>
       </c>
       <c r="H91">
-        <v>87.52831724065506</v>
+        <v>87.52831724065238</v>
       </c>
       <c r="I91">
-        <v>5.180937598541772E-08</v>
+        <v>5.180937598541512E-08</v>
       </c>
       <c r="J91">
-        <v>1.415320123136877E-08</v>
+        <v>1.415320123136861E-08</v>
       </c>
       <c r="K91">
-        <v>5.476537777521607E-05</v>
+        <v>5.476537777521668E-05</v>
       </c>
       <c r="L91">
-        <v>0.05092591629239183</v>
+        <v>0.05092591629239222</v>
       </c>
       <c r="M91">
-        <v>370.3558917632176</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.05092591629239222</v>
+      </c>
+      <c r="N91">
+        <v>370.3558917632215</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>146.1521627898767</v>
+        <v>146.1521627898765</v>
       </c>
       <c r="B92">
-        <v>4210095.730126143</v>
+        <v>4210095.730126098</v>
       </c>
       <c r="C92">
-        <v>6478.732203273987</v>
+        <v>6478.732203273868</v>
       </c>
       <c r="D92">
-        <v>20962.53640202324</v>
+        <v>20962.53640202333</v>
       </c>
       <c r="E92">
-        <v>2611.489189489109</v>
+        <v>2611.489189489156</v>
       </c>
       <c r="F92">
-        <v>2162.494962009153</v>
+        <v>2162.494962009195</v>
       </c>
       <c r="G92">
-        <v>5.384523065535688</v>
+        <v>5.384523065535708</v>
       </c>
       <c r="H92">
-        <v>95.48720360298681</v>
+        <v>95.48720360298474</v>
       </c>
       <c r="I92">
-        <v>6.040323834251445E-08</v>
+        <v>6.040323834251238E-08</v>
       </c>
       <c r="J92">
-        <v>1.475580939236361E-08</v>
+        <v>1.475580939236348E-08</v>
       </c>
       <c r="K92">
-        <v>5.273173844978758E-05</v>
+        <v>5.2731738449788E-05</v>
       </c>
       <c r="L92">
-        <v>0.04961002873959893</v>
+        <v>0.0496100287395992</v>
       </c>
       <c r="M92">
-        <v>358.7945497558997</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.0496100287395992</v>
+      </c>
+      <c r="N92">
+        <v>358.7945497559016</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>147.2285739587291</v>
+        <v>147.2285739587288</v>
       </c>
       <c r="B93">
-        <v>4393191.161960153</v>
+        <v>4393191.161960191</v>
       </c>
       <c r="C93">
-        <v>6905.902339696246</v>
+        <v>6905.902339696526</v>
       </c>
       <c r="D93">
-        <v>20521.10763954439</v>
+        <v>20521.10763954457</v>
       </c>
       <c r="E93">
-        <v>2442.016350194015</v>
+        <v>2442.01635019398</v>
       </c>
       <c r="F93">
-        <v>2019.947729862707</v>
+        <v>2019.947729862691</v>
       </c>
       <c r="G93">
-        <v>5.406499492832828</v>
+        <v>5.406499492832795</v>
       </c>
       <c r="H93">
-        <v>105.3745741145343</v>
+        <v>105.3745741145281</v>
       </c>
       <c r="I93">
-        <v>7.149352525093522E-08</v>
+        <v>7.149352525092875E-08</v>
       </c>
       <c r="J93">
-        <v>1.540638771494517E-08</v>
+        <v>1.54063877149449E-08</v>
       </c>
       <c r="K93">
-        <v>5.07004141733171E-05</v>
+        <v>5.070041417331796E-05</v>
       </c>
       <c r="L93">
-        <v>0.04830498322571667</v>
+        <v>0.04830498322571721</v>
       </c>
       <c r="M93">
-        <v>346.9916357178433</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.04830498322571721</v>
+      </c>
+      <c r="N93">
+        <v>346.9916357178492</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>148.3049851275815</v>
+        <v>148.3049851275812</v>
       </c>
       <c r="B94">
-        <v>4581750.876580053</v>
+        <v>4581750.876580071</v>
       </c>
       <c r="C94">
-        <v>7364.90102128219</v>
+        <v>7364.90102128242</v>
       </c>
       <c r="D94">
-        <v>20055.17569067008</v>
+        <v>20055.17569067031</v>
       </c>
       <c r="E94">
-        <v>2264.131599620391</v>
+        <v>2264.131599620362</v>
       </c>
       <c r="F94">
-        <v>1870.482639820008</v>
+        <v>1870.482639819993</v>
       </c>
       <c r="G94">
-        <v>5.438773282736002</v>
+        <v>5.438773282735944</v>
       </c>
       <c r="H94">
-        <v>118.0191344924734</v>
+        <v>118.0191344924631</v>
       </c>
       <c r="I94">
-        <v>8.624327724341936E-08</v>
+        <v>8.624327724340852E-08</v>
       </c>
       <c r="J94">
-        <v>1.611395653535182E-08</v>
+        <v>1.611395653535148E-08</v>
       </c>
       <c r="K94">
-        <v>4.866353070893308E-05</v>
+        <v>4.866353070893411E-05</v>
       </c>
       <c r="L94">
-        <v>0.04700614366901849</v>
+        <v>0.0470061436690191</v>
       </c>
       <c r="M94">
-        <v>334.9085009433542</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.0470061436690191</v>
+      </c>
+      <c r="N94">
+        <v>334.9085009433614</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>149.3813962964338</v>
+        <v>149.3813962964336</v>
       </c>
       <c r="B95">
-        <v>4775698.192253828</v>
+        <v>4775698.192253652</v>
       </c>
       <c r="C95">
-        <v>7859.429733061277</v>
+        <v>7859.42973306035</v>
       </c>
       <c r="D95">
-        <v>19559.47505956785</v>
+        <v>19559.47505956764</v>
       </c>
       <c r="E95">
-        <v>2076.597874400241</v>
+        <v>2076.597874400422</v>
       </c>
       <c r="F95">
-        <v>1713.121500471717</v>
+        <v>1713.121500471842</v>
       </c>
       <c r="G95">
-        <v>5.483165128976228</v>
+        <v>5.483165128976324</v>
       </c>
       <c r="H95">
-        <v>134.8024101280884</v>
+        <v>134.8024101281039</v>
       </c>
       <c r="I95">
-        <v>1.066373940619668E-07</v>
+        <v>1.066373940619832E-07</v>
       </c>
       <c r="J95">
-        <v>1.689103135790036E-08</v>
+        <v>1.689103135790063E-08</v>
       </c>
       <c r="K95">
-        <v>4.66097655948945E-05</v>
+        <v>4.660976559489361E-05</v>
       </c>
       <c r="L95">
-        <v>0.04570604828461627</v>
+        <v>0.0457060482846158</v>
       </c>
       <c r="M95">
-        <v>322.4905255357656</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.0457060482846158</v>
+      </c>
+      <c r="N95">
+        <v>322.4905255357576</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>150.4578074652863</v>
+        <v>150.457807465286</v>
       </c>
       <c r="B96">
-        <v>4974915.433638854</v>
+        <v>4974915.433638737</v>
       </c>
       <c r="C96">
-        <v>8395.451015428986</v>
+        <v>8395.451015428405</v>
       </c>
       <c r="D96">
-        <v>19026.27210229521</v>
+        <v>19026.27210229517</v>
       </c>
       <c r="E96">
-        <v>1877.304432411381</v>
+        <v>1877.304432411505</v>
       </c>
       <c r="F96">
-        <v>1546.20779016052</v>
+        <v>1546.207790160609</v>
       </c>
       <c r="G96">
-        <v>5.542193512785567</v>
+        <v>5.542193512785635</v>
       </c>
       <c r="H96">
-        <v>158.2116110081661</v>
+        <v>158.2116110081782</v>
       </c>
       <c r="I96">
-        <v>1.363416869230967E-07</v>
+        <v>1.363416869231082E-07</v>
       </c>
       <c r="J96">
-        <v>1.775585223351572E-08</v>
+        <v>1.775585223351574E-08</v>
       </c>
       <c r="K96">
-        <v>4.452215538127699E-05</v>
+        <v>4.452215538127681E-05</v>
       </c>
       <c r="L96">
-        <v>0.04439295213204367</v>
+        <v>0.04439295213204363</v>
       </c>
       <c r="M96">
-        <v>309.657341558146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.04439295213204363</v>
+      </c>
+      <c r="N96">
+        <v>309.6573415581431</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>151.5342186341387</v>
+        <v>151.5342186341384</v>
       </c>
       <c r="B97">
-        <v>5179249.242709242</v>
+        <v>5179249.242709247</v>
       </c>
       <c r="C97">
-        <v>8983.237177554149</v>
+        <v>8983.237177554471</v>
       </c>
       <c r="D97">
-        <v>18443.49201586635</v>
+        <v>18443.49201586672</v>
       </c>
       <c r="E97">
-        <v>1662.571963755226</v>
+        <v>1662.571963755217</v>
       </c>
       <c r="F97">
-        <v>1366.843158677288</v>
+        <v>1366.843158677292</v>
       </c>
       <c r="G97">
-        <v>5.619575442181302</v>
+        <v>5.619575442181219</v>
       </c>
       <c r="H97">
-        <v>193.2219348519041</v>
+        <v>193.2219348518741</v>
       </c>
       <c r="I97">
-        <v>1.828971828754976E-07</v>
+        <v>1.828971828754579E-07</v>
       </c>
       <c r="J97">
-        <v>1.873679433958178E-08</v>
+        <v>1.873679433958118E-08</v>
       </c>
       <c r="K97">
-        <v>4.237383930590364E-05</v>
+        <v>4.237383930590498E-05</v>
       </c>
       <c r="L97">
-        <v>0.04304805140957926</v>
+        <v>0.04304805140958002</v>
       </c>
       <c r="M97">
-        <v>296.2838450725128</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.04304805140958002</v>
+      </c>
+      <c r="N97">
+        <v>296.283845072522</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>152.610629802991</v>
+        <v>152.6106298029908</v>
       </c>
       <c r="B98">
-        <v>5388518.689901758</v>
+        <v>5388518.689901674</v>
       </c>
       <c r="C98">
-        <v>9641.731925811497</v>
+        <v>9641.731925810956</v>
       </c>
       <c r="D98">
         <v>17790.52375270827</v>
       </c>
       <c r="E98">
-        <v>1425.671169445118</v>
+        <v>1425.671169445231</v>
       </c>
       <c r="F98">
-        <v>1169.683627314203</v>
+        <v>1169.683627314289</v>
       </c>
       <c r="G98">
-        <v>5.721313149857118</v>
+        <v>5.721313149857165</v>
       </c>
       <c r="H98">
-        <v>251.443955955444</v>
+        <v>251.4439559554561</v>
       </c>
       <c r="I98">
-        <v>2.64462263413548E-07</v>
+        <v>2.644622634135615E-07</v>
       </c>
       <c r="J98">
-        <v>1.98823109732466E-08</v>
+        <v>1.988231097324656E-08</v>
       </c>
       <c r="K98">
         <v>4.011856738914239E-05</v>
       </c>
       <c r="L98">
-        <v>0.04163944903051248</v>
+        <v>0.04163944903051253</v>
       </c>
       <c r="M98">
-        <v>282.1578219681213</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.04163944903051253</v>
+      </c>
+      <c r="N98">
+        <v>282.1578219681199</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>153.6870409718434</v>
+        <v>153.6870409718432</v>
       </c>
       <c r="B99">
-        <v>5602524.851278872</v>
+        <v>5602524.851279083</v>
       </c>
       <c r="C99">
-        <v>10410.15513351824</v>
+        <v>10410.15513352164</v>
       </c>
       <c r="D99">
-        <v>17026.73987731508</v>
+        <v>17026.739877317</v>
       </c>
       <c r="E99">
-        <v>1152.848204432943</v>
+        <v>1152.848204432567</v>
       </c>
       <c r="F99">
-        <v>943.7121221711559</v>
+        <v>943.7121221709112</v>
       </c>
       <c r="G99">
-        <v>5.858561055151082</v>
+        <v>5.858561055150401</v>
       </c>
       <c r="H99">
-        <v>367.7146061634605</v>
+        <v>367.7146061628456</v>
       </c>
       <c r="I99">
-        <v>4.375394547405069E-07</v>
+        <v>4.375394547396317E-07</v>
       </c>
       <c r="J99">
-        <v>2.128831281302492E-08</v>
+        <v>2.128831281302156E-08</v>
       </c>
       <c r="K99">
-        <v>3.766472613266501E-05</v>
+        <v>3.766472613267116E-05</v>
       </c>
       <c r="L99">
-        <v>0.04010615639943817</v>
+        <v>0.04010615639944147</v>
       </c>
       <c r="M99">
-        <v>266.8638842151746</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.04010615639944147</v>
+      </c>
+      <c r="N99">
+        <v>266.8638842152203</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>154.7634521406958</v>
+        <v>154.7634521406955</v>
       </c>
       <c r="B100">
-        <v>5821060.450806455</v>
+        <v>5821060.450806194</v>
       </c>
       <c r="C100">
-        <v>11393.19733477811</v>
+        <v>11393.1973347729</v>
       </c>
       <c r="D100">
-        <v>16046.3700630651</v>
+        <v>16046.37006306239</v>
       </c>
       <c r="E100">
-        <v>807.7558747830628</v>
+        <v>807.75587478359</v>
       </c>
       <c r="F100">
-        <v>659.5965943363018</v>
+        <v>659.5965943366632</v>
       </c>
       <c r="G100">
-        <v>6.058416749090121</v>
+        <v>6.058416749091091</v>
       </c>
       <c r="H100">
-        <v>716.2047189307818</v>
+        <v>716.2047189334348</v>
       </c>
       <c r="I100">
-        <v>9.981082307578398E-07</v>
+        <v>9.98108230761997E-07</v>
       </c>
       <c r="J100">
-        <v>2.320654751163405E-08</v>
+        <v>2.320654751163919E-08</v>
       </c>
       <c r="K100">
-        <v>3.477301254489135E-05</v>
+        <v>3.477301254488344E-05</v>
       </c>
       <c r="L100">
-        <v>0.03829708542950713</v>
+        <v>0.03829708542950299</v>
       </c>
       <c r="M100">
-        <v>249.3258497744536</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.03829708542950299</v>
+      </c>
+      <c r="N100">
+        <v>249.3258497743977</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>155.8398633095482</v>
+        <v>155.8398633095479</v>
       </c>
       <c r="B101">
-        <v>6043917.217183696</v>
+        <v>6043917.224710583</v>
       </c>
       <c r="C101">
-        <v>13767.35879471847</v>
+        <v>13765.99416068111</v>
       </c>
       <c r="D101">
-        <v>13773.71595083161</v>
+        <v>13775.01307607025</v>
       </c>
       <c r="E101">
-        <v>1.098203326358139</v>
+        <v>1.558025827436751</v>
       </c>
       <c r="F101">
-        <v>0.8955845771014723</v>
+        <v>1.270568608897456</v>
       </c>
       <c r="G101">
-        <v>6.563083000341116</v>
+        <v>6.562802213121907</v>
       </c>
       <c r="H101">
-        <v>7596593.015867964</v>
+        <v>5312546.277668892</v>
       </c>
       <c r="I101">
-        <v>0.0151841183722799</v>
+        <v>0.0106166016991859</v>
       </c>
       <c r="J101">
-        <v>2.824780865574259E-08</v>
+        <v>2.824464884272665E-08</v>
       </c>
       <c r="K101">
-        <v>2.89924295300458E-05</v>
+        <v>2.899541251630869E-05</v>
       </c>
       <c r="L101">
-        <v>0.03476573986815016</v>
+        <v>0.03476748152675938</v>
       </c>
       <c r="M101">
-        <v>218.5587791560527</v>
+        <v>0.03476748152675938</v>
+      </c>
+      <c r="N101">
+        <v>218.5723529438581</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
